--- a/MR Thermometry/PRF Based/DataBase.xlsx
+++ b/MR Thermometry/PRF Based/DataBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49A9B1A-26A0-4FB4-B53B-FEF06CA32D1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98425D0A-AD74-40FC-A80E-3B97C21125F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,388 +191,388 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
                 <c:pt idx="0">
-                  <c:v>1.0115134284453813</c:v>
+                  <c:v>1.2839619078076006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0119047437993929</c:v>
+                  <c:v>1.2820313768228686</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0109884628178532</c:v>
+                  <c:v>1.2826649661370233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.010536210553866</c:v>
+                  <c:v>1.2842420606547471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0109232349618555</c:v>
+                  <c:v>1.2847638822679366</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.011093532968723</c:v>
+                  <c:v>1.2850974165553222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0111115098913921</c:v>
+                  <c:v>1.2852476066968794</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0111034636205389</c:v>
+                  <c:v>1.2854841668937307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.011107084958258</c:v>
+                  <c:v>1.285781180520565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0110908641177736</c:v>
+                  <c:v>1.2860837678522883</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0109830921044949</c:v>
+                  <c:v>1.286279439263043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0107814979934493</c:v>
+                  <c:v>1.2864429717345287</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0105109477204128</c:v>
+                  <c:v>1.2867249088420087</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0102352961090635</c:v>
+                  <c:v>1.2870499574310865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0099973615893509</c:v>
+                  <c:v>1.2873123125030308</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0098191390562785</c:v>
+                  <c:v>1.2876201625059984</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0097059315460721</c:v>
+                  <c:v>1.2880220225156231</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0096169231074672</c:v>
+                  <c:v>1.2883267313917</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0095525912905592</c:v>
+                  <c:v>1.2884578632178898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0095432430753934</c:v>
+                  <c:v>1.2886069897471431</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0096279031516067</c:v>
+                  <c:v>1.2887621285491022</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0097776376823349</c:v>
+                  <c:v>1.2887131012138262</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0099452510051854</c:v>
+                  <c:v>1.2885416325833878</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0101405887692054</c:v>
+                  <c:v>1.2884153780511634</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0103508285845264</c:v>
+                  <c:v>1.2881536934952147</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0105691621462705</c:v>
+                  <c:v>1.2876405424693611</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0107763063517203</c:v>
+                  <c:v>1.2871213531680235</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0110349949804844</c:v>
+                  <c:v>1.2866995418817593</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.01137198641134</c:v>
+                  <c:v>1.2861829200464261</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0117961265945166</c:v>
+                  <c:v>1.2856496939011499</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0122861089436272</c:v>
+                  <c:v>1.2853913388539069</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0128636096806136</c:v>
+                  <c:v>1.2852826135476347</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.013539920541292</c:v>
+                  <c:v>1.2850987066950266</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0142699098320849</c:v>
+                  <c:v>1.2850411919326783</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0149991043195032</c:v>
+                  <c:v>1.2853026582794551</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0156764929960027</c:v>
+                  <c:v>1.2855560259572663</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0162984840924085</c:v>
+                  <c:v>1.2856978183993546</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0168438258612478</c:v>
+                  <c:v>1.2860622541208446</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0172996565226387</c:v>
+                  <c:v>1.2865393352881642</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0177352545736087</c:v>
+                  <c:v>1.2867277844354743</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.018106399643494</c:v>
+                  <c:v>1.2868305300116485</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0184081791336648</c:v>
+                  <c:v>1.2871882391203229</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0186017218383605</c:v>
+                  <c:v>1.2874857690650416</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0188165152621811</c:v>
+                  <c:v>1.2874780087742774</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0190128712259099</c:v>
+                  <c:v>1.2877074784915357</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0191577411599844</c:v>
+                  <c:v>1.288263178387733</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0191939887477952</c:v>
+                  <c:v>1.2884844136257925</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0192214512409332</c:v>
+                  <c:v>1.2885259991809925</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0191720904686574</c:v>
+                  <c:v>1.2890317768670045</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0187530875024648</c:v>
+                  <c:v>1.28970382458118</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0181846024065069</c:v>
+                  <c:v>1.2895852033705637</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.0174464732656487</c:v>
+                  <c:v>1.2896239983763433</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0169652642303719</c:v>
+                  <c:v>1.2907835010906612</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0158386955509484</c:v>
+                  <c:v>1.2911956712614487</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.0143643029089588</c:v>
+                  <c:v>1.2898988396442035</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0138980377522586</c:v>
+                  <c:v>1.289378140390123</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0149645122214674</c:v>
+                  <c:v>1.2930092905827739</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.0174460455856695</c:v>
+                  <c:v>1.2973808620854579</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0129271418984716</c:v>
+                  <c:v>1.2891697066395778</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.98941661702920269</c:v>
+                  <c:v>1.25517031344254</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.94282172634129424</c:v>
+                  <c:v>1.1916102682465772</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.8753852382269659</c:v>
+                  <c:v>1.1013556654239387</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.79008836156844953</c:v>
+                  <c:v>0.98843717823108435</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.69027550540457627</c:v>
+                  <c:v>0.85791110904563528</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.58110649127087421</c:v>
+                  <c:v>0.716128256138026</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.46825470703787436</c:v>
+                  <c:v>0.57100841681762105</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.35767212759562372</c:v>
+                  <c:v>0.43026535379965947</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.25370275515488627</c:v>
+                  <c:v>0.29958293472314435</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.16177013490859751</c:v>
+                  <c:v>0.18475335042820601</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.7967025240660884E-2</c:v>
+                  <c:v>9.3144325004473311E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.6590479061141136E-2</c:v>
+                  <c:v>3.3213200886100816E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.2541290385684207E-2</c:v>
+                  <c:v>1.0967165963481443E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1359972532098998E-2</c:v>
+                  <c:v>1.3722424800549336E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1913040665704451E-2</c:v>
+                  <c:v>1.6318462518791477E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.230189986355381E-2</c:v>
+                  <c:v>1.7974431423696102E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.2862070211557591E-2</c:v>
+                  <c:v>1.8429179625326798E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.332985001113487E-2</c:v>
+                  <c:v>1.7915661419244184E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3794656784102029E-2</c:v>
+                  <c:v>1.7546006399103302E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.4128699714233521E-2</c:v>
+                  <c:v>1.7611050297955504E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.4232079165133771E-2</c:v>
+                  <c:v>1.7379577309042611E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.4332834980516133E-2</c:v>
+                  <c:v>1.6794383773883478E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.4537081625494828E-2</c:v>
+                  <c:v>1.6464758079946185E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.4762755717502065E-2</c:v>
+                  <c:v>1.6254935011613993E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.5007472363082287E-2</c:v>
+                  <c:v>1.5648544148270313E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.5326377164137702E-2</c:v>
+                  <c:v>1.4998340940173573E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.5700002388396462E-2</c:v>
+                  <c:v>1.4713142424327577E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.599733919233812E-2</c:v>
+                  <c:v>1.4396328831566201E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.6147931999402627E-2</c:v>
+                  <c:v>1.3832375688065873E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6181313228736029E-2</c:v>
+                  <c:v>1.3419516928953563E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6078375179689273E-2</c:v>
+                  <c:v>1.3234165612613811E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5772348547485097E-2</c:v>
+                  <c:v>1.2886857239050089E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5267672682660169E-2</c:v>
+                  <c:v>1.2483309790142097E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.4605500991221314E-2</c:v>
+                  <c:v>1.2415871599016682E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.3826999730022507E-2</c:v>
+                  <c:v>1.2509818761734645E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.3009957845412371E-2</c:v>
+                  <c:v>1.2453405291067813E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.2197048409775283E-2</c:v>
+                  <c:v>1.2406306602465833E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.1432801877867924E-2</c:v>
+                  <c:v>1.2490288676885024E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0720893115836379E-2</c:v>
+                  <c:v>1.240432310537095E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0021903537525745E-2</c:v>
+                  <c:v>1.2092249748865923E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.3702919016233916E-3</c:v>
+                  <c:v>1.1865845488122372E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.8105416776056052E-3</c:v>
+                  <c:v>1.1702652298894077E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.3502236466336029E-3</c:v>
+                  <c:v>1.1350724871890532E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.959270322797217E-3</c:v>
+                  <c:v>1.0914819267582027E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.5845807326742447E-3</c:v>
+                  <c:v>1.0581444670971121E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.2321591610891639E-3</c:v>
+                  <c:v>1.0170204026836235E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.9188936408589377E-3</c:v>
+                  <c:v>9.570446092995134E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.619186862732513E-3</c:v>
+                  <c:v>9.0635157076655263E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.3285729108833828E-3</c:v>
+                  <c:v>8.7208421428913094E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>6.0595820791816205E-3</c:v>
+                  <c:v>8.2588316848120399E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.7835213247718854E-3</c:v>
+                  <c:v>7.6250879935456997E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5.4613156013766633E-3</c:v>
+                  <c:v>6.9972957908531284E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5.1007602821217879E-3</c:v>
+                  <c:v>6.3436453995575149E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.7172570377172745E-3</c:v>
+                  <c:v>5.576819267765847E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.2889111962293907E-3</c:v>
+                  <c:v>4.8633595400045838E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.8427480695276783E-3</c:v>
+                  <c:v>4.3993299681788466E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.4407523073605928E-3</c:v>
+                  <c:v>4.1500818731578766E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.108794292932344E-3</c:v>
+                  <c:v>3.9460160489655114E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.8487383011450828E-3</c:v>
+                  <c:v>3.7727127334954724E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.6502782511110897E-3</c:v>
+                  <c:v>3.6878979914241219E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.472259630182373E-3</c:v>
+                  <c:v>3.5398602637655412E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.3153581737762881E-3</c:v>
+                  <c:v>3.1697854404337624E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.2722118247088707E-3</c:v>
+                  <c:v>2.8551751872644931E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.4250084856544474E-3</c:v>
+                  <c:v>2.0919967401155709E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.7384463208427246E-3</c:v>
+                  <c:v>1.4506102076251534E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.6238710193214037E-3</c:v>
+                  <c:v>1.3832961078920456E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.0868220170835402E-3</c:v>
+                  <c:v>2.2588015623985205E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.5506197938589374E-3</c:v>
+                  <c:v>4.252371007999689E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5.8284113752022978E-36</c:v>
+                  <c:v>1.5758492296649355E-35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,6 +829,763 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>k-space</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Energy Spectrum</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10066437007874016"/>
+          <c:y val="0.13872688092976704"/>
+          <c:w val="0.85836340769903763"/>
+          <c:h val="0.7550551616732557"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$DX$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1.519658488451147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5197662801670355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5226195622660994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5235812900347121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5240720134126584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5248910393078781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5251260817414014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5254253961114108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5257661796513875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5259215584863586</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.526023773655945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.526172017547349</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5262884334559705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5262810828200006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5262067140464013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5262260218138075</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5263592903200114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5264332998420962</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5263482625615363</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5262315168212166</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.526218619880567</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5262298419365499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5261144066930949</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.525914017606214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5257936308946307</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5257680877731492</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5256736285874044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5254366384992504</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.525238157644355</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5252266283461062</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5252862727102734</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5252677354814179</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5252028867443601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.525263783119333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5254891446069134</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5256741010021444</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.525725584647214</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5257997427397538</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5259888597637279</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5261844070685668</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5262281406358076</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5261693261253466</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5262212718246344</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5263529392611872</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5263822999718129</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5263071966125326</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5262469615990861</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5263009545716171</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5263441887643479</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5261672201149856</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5258450132215851</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5255512281580013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5252667502560493</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5248489251275763</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5242679496181109</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5237471962881441</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5233733099193394</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5229033942122907</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5222785850417042</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5216792138532518</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5212542403460343</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5209549915627114</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5205199592891647</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5200168397370246</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.519707154430022</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5194574975022834</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5190874952136926</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5185507372782112</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5180363211971104</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5178226360950546</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5175177493677661</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5168407007256781</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.516264922054992</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5159592161431157</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5157731783138455</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5154869807734723</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.514851147471598</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5145529519975212</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.5149961207972011</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.514899886346164</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5138483742718316</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.513330972420017</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5141168415135202</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5149276650750432</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5136461548980926</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5101237328779418</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5077650022151419</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5107773869134853</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5183404969291765</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5207019456865558</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5031797692426034</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4557364782864732</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3763480720795631</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2670445247921924</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1321672192063503</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.97877575372190795</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.81508483367078532</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.6487664089452142</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.48668327611806517</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.33602907362330697</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.2062990964860692</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.1083948759173174</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.7858324503776598E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8821412515957783E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.2962639729193578E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.8705951520887593E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.8793403018316546E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0059587743578189E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.5889398454073373E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.4880041080658639E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.0113458891341218E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.3184224271842366E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.4818298306327412E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.0443360770167723E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.5316688990723834E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.6674303139162387E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.1287947944547884E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.1127091917667562E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.6323227262003008E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.4448976376214164E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.7713864060567463E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.6875965574549855E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.5428638439906459E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.7825675002132422E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.265019327992406E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2654127611547791E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.6125067127777105E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.5041904752392974E-35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A4F-4D7A-A7E3-C588C85B1496}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="623955456"/>
+        <c:axId val="623955784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="623955456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Nx</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46522801837270339"/>
+              <c:y val="0.92146613968973745"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="623955784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623955784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Signal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Intensity</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.1782589676290488E-3"/>
+              <c:y val="0.30944779762451874"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="623955456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -869,7 +1626,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1418,6 +2731,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3ED5F1-5618-4E9E-8FCD-9A8D7891959B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1689,398 +3038,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DX1"/>
+  <dimension ref="A1:DX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1.0115134284453813</v>
+        <v>1.2839619078076006</v>
       </c>
       <c r="B1">
-        <v>1.0119047437993929</v>
+        <v>1.2820313768228686</v>
       </c>
       <c r="C1">
-        <v>1.0109884628178532</v>
+        <v>1.2826649661370233</v>
       </c>
       <c r="D1">
-        <v>1.010536210553866</v>
+        <v>1.2842420606547471</v>
       </c>
       <c r="E1">
-        <v>1.0109232349618555</v>
+        <v>1.2847638822679366</v>
       </c>
       <c r="F1">
-        <v>1.011093532968723</v>
+        <v>1.2850974165553222</v>
       </c>
       <c r="G1">
-        <v>1.0111115098913921</v>
+        <v>1.2852476066968794</v>
       </c>
       <c r="H1">
-        <v>1.0111034636205389</v>
+        <v>1.2854841668937307</v>
       </c>
       <c r="I1">
-        <v>1.011107084958258</v>
+        <v>1.285781180520565</v>
       </c>
       <c r="J1">
-        <v>1.0110908641177736</v>
+        <v>1.2860837678522883</v>
       </c>
       <c r="K1">
-        <v>1.0109830921044949</v>
+        <v>1.286279439263043</v>
       </c>
       <c r="L1">
-        <v>1.0107814979934493</v>
+        <v>1.2864429717345287</v>
       </c>
       <c r="M1">
-        <v>1.0105109477204128</v>
+        <v>1.2867249088420087</v>
       </c>
       <c r="N1">
-        <v>1.0102352961090635</v>
+        <v>1.2870499574310865</v>
       </c>
       <c r="O1">
-        <v>1.0099973615893509</v>
+        <v>1.2873123125030308</v>
       </c>
       <c r="P1">
-        <v>1.0098191390562785</v>
+        <v>1.2876201625059984</v>
       </c>
       <c r="Q1">
-        <v>1.0097059315460721</v>
+        <v>1.2880220225156231</v>
       </c>
       <c r="R1">
-        <v>1.0096169231074672</v>
+        <v>1.2883267313917</v>
       </c>
       <c r="S1">
-        <v>1.0095525912905592</v>
+        <v>1.2884578632178898</v>
       </c>
       <c r="T1">
-        <v>1.0095432430753934</v>
+        <v>1.2886069897471431</v>
       </c>
       <c r="U1">
-        <v>1.0096279031516067</v>
+        <v>1.2887621285491022</v>
       </c>
       <c r="V1">
-        <v>1.0097776376823349</v>
+        <v>1.2887131012138262</v>
       </c>
       <c r="W1">
-        <v>1.0099452510051854</v>
+        <v>1.2885416325833878</v>
       </c>
       <c r="X1">
-        <v>1.0101405887692054</v>
+        <v>1.2884153780511634</v>
       </c>
       <c r="Y1">
-        <v>1.0103508285845264</v>
+        <v>1.2881536934952147</v>
       </c>
       <c r="Z1">
-        <v>1.0105691621462705</v>
+        <v>1.2876405424693611</v>
       </c>
       <c r="AA1">
-        <v>1.0107763063517203</v>
+        <v>1.2871213531680235</v>
       </c>
       <c r="AB1">
-        <v>1.0110349949804844</v>
+        <v>1.2866995418817593</v>
       </c>
       <c r="AC1">
-        <v>1.01137198641134</v>
+        <v>1.2861829200464261</v>
       </c>
       <c r="AD1">
-        <v>1.0117961265945166</v>
+        <v>1.2856496939011499</v>
       </c>
       <c r="AE1">
-        <v>1.0122861089436272</v>
+        <v>1.2853913388539069</v>
       </c>
       <c r="AF1">
-        <v>1.0128636096806136</v>
+        <v>1.2852826135476347</v>
       </c>
       <c r="AG1">
-        <v>1.013539920541292</v>
+        <v>1.2850987066950266</v>
       </c>
       <c r="AH1">
-        <v>1.0142699098320849</v>
+        <v>1.2850411919326783</v>
       </c>
       <c r="AI1">
-        <v>1.0149991043195032</v>
+        <v>1.2853026582794551</v>
       </c>
       <c r="AJ1">
-        <v>1.0156764929960027</v>
+        <v>1.2855560259572663</v>
       </c>
       <c r="AK1">
-        <v>1.0162984840924085</v>
+        <v>1.2856978183993546</v>
       </c>
       <c r="AL1">
-        <v>1.0168438258612478</v>
+        <v>1.2860622541208446</v>
       </c>
       <c r="AM1">
-        <v>1.0172996565226387</v>
+        <v>1.2865393352881642</v>
       </c>
       <c r="AN1">
-        <v>1.0177352545736087</v>
+        <v>1.2867277844354743</v>
       </c>
       <c r="AO1">
-        <v>1.018106399643494</v>
+        <v>1.2868305300116485</v>
       </c>
       <c r="AP1">
-        <v>1.0184081791336648</v>
+        <v>1.2871882391203229</v>
       </c>
       <c r="AQ1">
-        <v>1.0186017218383605</v>
+        <v>1.2874857690650416</v>
       </c>
       <c r="AR1">
-        <v>1.0188165152621811</v>
+        <v>1.2874780087742774</v>
       </c>
       <c r="AS1">
-        <v>1.0190128712259099</v>
+        <v>1.2877074784915357</v>
       </c>
       <c r="AT1">
-        <v>1.0191577411599844</v>
+        <v>1.288263178387733</v>
       </c>
       <c r="AU1">
-        <v>1.0191939887477952</v>
+        <v>1.2884844136257925</v>
       </c>
       <c r="AV1">
-        <v>1.0192214512409332</v>
+        <v>1.2885259991809925</v>
       </c>
       <c r="AW1">
-        <v>1.0191720904686574</v>
+        <v>1.2890317768670045</v>
       </c>
       <c r="AX1">
-        <v>1.0187530875024648</v>
+        <v>1.28970382458118</v>
       </c>
       <c r="AY1">
-        <v>1.0181846024065069</v>
+        <v>1.2895852033705637</v>
       </c>
       <c r="AZ1">
-        <v>1.0174464732656487</v>
+        <v>1.2896239983763433</v>
       </c>
       <c r="BA1">
-        <v>1.0169652642303719</v>
+        <v>1.2907835010906612</v>
       </c>
       <c r="BB1">
-        <v>1.0158386955509484</v>
+        <v>1.2911956712614487</v>
       </c>
       <c r="BC1">
-        <v>1.0143643029089588</v>
+        <v>1.2898988396442035</v>
       </c>
       <c r="BD1">
-        <v>1.0138980377522586</v>
+        <v>1.289378140390123</v>
       </c>
       <c r="BE1">
-        <v>1.0149645122214674</v>
+        <v>1.2930092905827739</v>
       </c>
       <c r="BF1">
-        <v>1.0174460455856695</v>
+        <v>1.2973808620854579</v>
       </c>
       <c r="BG1">
-        <v>1.0129271418984716</v>
+        <v>1.2891697066395778</v>
       </c>
       <c r="BH1">
-        <v>0.98941661702920269</v>
+        <v>1.25517031344254</v>
       </c>
       <c r="BI1">
-        <v>0.94282172634129424</v>
+        <v>1.1916102682465772</v>
       </c>
       <c r="BJ1">
-        <v>0.8753852382269659</v>
+        <v>1.1013556654239387</v>
       </c>
       <c r="BK1">
-        <v>0.79008836156844953</v>
+        <v>0.98843717823108435</v>
       </c>
       <c r="BL1">
-        <v>0.69027550540457627</v>
+        <v>0.85791110904563528</v>
       </c>
       <c r="BM1">
-        <v>0.58110649127087421</v>
+        <v>0.716128256138026</v>
       </c>
       <c r="BN1">
-        <v>0.46825470703787436</v>
+        <v>0.57100841681762105</v>
       </c>
       <c r="BO1">
-        <v>0.35767212759562372</v>
+        <v>0.43026535379965947</v>
       </c>
       <c r="BP1">
-        <v>0.25370275515488627</v>
+        <v>0.29958293472314435</v>
       </c>
       <c r="BQ1">
-        <v>0.16177013490859751</v>
+        <v>0.18475335042820601</v>
       </c>
       <c r="BR1">
-        <v>8.7967025240660884E-2</v>
+        <v>9.3144325004473311E-2</v>
       </c>
       <c r="BS1">
-        <v>3.6590479061141136E-2</v>
+        <v>3.3213200886100816E-2</v>
       </c>
       <c r="BT1">
-        <v>1.2541290385684207E-2</v>
+        <v>1.0967165963481443E-2</v>
       </c>
       <c r="BU1">
-        <v>1.1359972532098998E-2</v>
+        <v>1.3722424800549336E-2</v>
       </c>
       <c r="BV1">
-        <v>1.1913040665704451E-2</v>
+        <v>1.6318462518791477E-2</v>
       </c>
       <c r="BW1">
-        <v>1.230189986355381E-2</v>
+        <v>1.7974431423696102E-2</v>
       </c>
       <c r="BX1">
-        <v>1.2862070211557591E-2</v>
+        <v>1.8429179625326798E-2</v>
       </c>
       <c r="BY1">
-        <v>1.332985001113487E-2</v>
+        <v>1.7915661419244184E-2</v>
       </c>
       <c r="BZ1">
-        <v>1.3794656784102029E-2</v>
+        <v>1.7546006399103302E-2</v>
       </c>
       <c r="CA1">
-        <v>1.4128699714233521E-2</v>
+        <v>1.7611050297955504E-2</v>
       </c>
       <c r="CB1">
-        <v>1.4232079165133771E-2</v>
+        <v>1.7379577309042611E-2</v>
       </c>
       <c r="CC1">
-        <v>1.4332834980516133E-2</v>
+        <v>1.6794383773883478E-2</v>
       </c>
       <c r="CD1">
-        <v>1.4537081625494828E-2</v>
+        <v>1.6464758079946185E-2</v>
       </c>
       <c r="CE1">
-        <v>1.4762755717502065E-2</v>
+        <v>1.6254935011613993E-2</v>
       </c>
       <c r="CF1">
-        <v>1.5007472363082287E-2</v>
+        <v>1.5648544148270313E-2</v>
       </c>
       <c r="CG1">
-        <v>1.5326377164137702E-2</v>
+        <v>1.4998340940173573E-2</v>
       </c>
       <c r="CH1">
-        <v>1.5700002388396462E-2</v>
+        <v>1.4713142424327577E-2</v>
       </c>
       <c r="CI1">
-        <v>1.599733919233812E-2</v>
+        <v>1.4396328831566201E-2</v>
       </c>
       <c r="CJ1">
-        <v>1.6147931999402627E-2</v>
+        <v>1.3832375688065873E-2</v>
       </c>
       <c r="CK1">
-        <v>1.6181313228736029E-2</v>
+        <v>1.3419516928953563E-2</v>
       </c>
       <c r="CL1">
-        <v>1.6078375179689273E-2</v>
+        <v>1.3234165612613811E-2</v>
       </c>
       <c r="CM1">
-        <v>1.5772348547485097E-2</v>
+        <v>1.2886857239050089E-2</v>
       </c>
       <c r="CN1">
-        <v>1.5267672682660169E-2</v>
+        <v>1.2483309790142097E-2</v>
       </c>
       <c r="CO1">
-        <v>1.4605500991221314E-2</v>
+        <v>1.2415871599016682E-2</v>
       </c>
       <c r="CP1">
-        <v>1.3826999730022507E-2</v>
+        <v>1.2509818761734645E-2</v>
       </c>
       <c r="CQ1">
-        <v>1.3009957845412371E-2</v>
+        <v>1.2453405291067813E-2</v>
       </c>
       <c r="CR1">
-        <v>1.2197048409775283E-2</v>
+        <v>1.2406306602465833E-2</v>
       </c>
       <c r="CS1">
-        <v>1.1432801877867924E-2</v>
+        <v>1.2490288676885024E-2</v>
       </c>
       <c r="CT1">
-        <v>1.0720893115836379E-2</v>
+        <v>1.240432310537095E-2</v>
       </c>
       <c r="CU1">
-        <v>1.0021903537525745E-2</v>
+        <v>1.2092249748865923E-2</v>
       </c>
       <c r="CV1">
-        <v>9.3702919016233916E-3</v>
+        <v>1.1865845488122372E-2</v>
       </c>
       <c r="CW1">
-        <v>8.8105416776056052E-3</v>
+        <v>1.1702652298894077E-2</v>
       </c>
       <c r="CX1">
-        <v>8.3502236466336029E-3</v>
+        <v>1.1350724871890532E-2</v>
       </c>
       <c r="CY1">
-        <v>7.959270322797217E-3</v>
+        <v>1.0914819267582027E-2</v>
       </c>
       <c r="CZ1">
-        <v>7.5845807326742447E-3</v>
+        <v>1.0581444670971121E-2</v>
       </c>
       <c r="DA1">
-        <v>7.2321591610891639E-3</v>
+        <v>1.0170204026836235E-2</v>
       </c>
       <c r="DB1">
-        <v>6.9188936408589377E-3</v>
+        <v>9.570446092995134E-3</v>
       </c>
       <c r="DC1">
-        <v>6.619186862732513E-3</v>
+        <v>9.0635157076655263E-3</v>
       </c>
       <c r="DD1">
-        <v>6.3285729108833828E-3</v>
+        <v>8.7208421428913094E-3</v>
       </c>
       <c r="DE1">
-        <v>6.0595820791816205E-3</v>
+        <v>8.2588316848120399E-3</v>
       </c>
       <c r="DF1">
-        <v>5.7835213247718854E-3</v>
+        <v>7.6250879935456997E-3</v>
       </c>
       <c r="DG1">
-        <v>5.4613156013766633E-3</v>
+        <v>6.9972957908531284E-3</v>
       </c>
       <c r="DH1">
-        <v>5.1007602821217879E-3</v>
+        <v>6.3436453995575149E-3</v>
       </c>
       <c r="DI1">
-        <v>4.7172570377172745E-3</v>
+        <v>5.576819267765847E-3</v>
       </c>
       <c r="DJ1">
-        <v>4.2889111962293907E-3</v>
+        <v>4.8633595400045838E-3</v>
       </c>
       <c r="DK1">
-        <v>3.8427480695276783E-3</v>
+        <v>4.3993299681788466E-3</v>
       </c>
       <c r="DL1">
-        <v>3.4407523073605928E-3</v>
+        <v>4.1500818731578766E-3</v>
       </c>
       <c r="DM1">
-        <v>3.108794292932344E-3</v>
+        <v>3.9460160489655114E-3</v>
       </c>
       <c r="DN1">
-        <v>2.8487383011450828E-3</v>
+        <v>3.7727127334954724E-3</v>
       </c>
       <c r="DO1">
-        <v>2.6502782511110897E-3</v>
+        <v>3.6878979914241219E-3</v>
       </c>
       <c r="DP1">
-        <v>2.472259630182373E-3</v>
+        <v>3.5398602637655412E-3</v>
       </c>
       <c r="DQ1">
-        <v>2.3153581737762881E-3</v>
+        <v>3.1697854404337624E-3</v>
       </c>
       <c r="DR1">
-        <v>2.2722118247088707E-3</v>
+        <v>2.8551751872644931E-3</v>
       </c>
       <c r="DS1">
-        <v>2.4250084856544474E-3</v>
+        <v>2.0919967401155709E-3</v>
       </c>
       <c r="DT1">
-        <v>2.7384463208427246E-3</v>
+        <v>1.4506102076251534E-3</v>
       </c>
       <c r="DU1">
-        <v>2.6238710193214037E-3</v>
+        <v>1.3832961078920456E-3</v>
       </c>
       <c r="DV1">
-        <v>2.0868220170835402E-3</v>
+        <v>2.2588015623985205E-3</v>
       </c>
       <c r="DW1">
-        <v>1.5506197938589374E-3</v>
+        <v>4.252371007999689E-3</v>
       </c>
       <c r="DX1">
-        <v>5.8284113752022978E-36</v>
+        <v>1.5758492296649355E-35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.519658488451147</v>
+      </c>
+      <c r="B2">
+        <v>1.5197662801670355</v>
+      </c>
+      <c r="C2">
+        <v>1.5226195622660994</v>
+      </c>
+      <c r="D2">
+        <v>1.5235812900347121</v>
+      </c>
+      <c r="E2">
+        <v>1.5240720134126584</v>
+      </c>
+      <c r="F2">
+        <v>1.5248910393078781</v>
+      </c>
+      <c r="G2">
+        <v>1.5251260817414014</v>
+      </c>
+      <c r="H2">
+        <v>1.5254253961114108</v>
+      </c>
+      <c r="I2">
+        <v>1.5257661796513875</v>
+      </c>
+      <c r="J2">
+        <v>1.5259215584863586</v>
+      </c>
+      <c r="K2">
+        <v>1.526023773655945</v>
+      </c>
+      <c r="L2">
+        <v>1.526172017547349</v>
+      </c>
+      <c r="M2">
+        <v>1.5262884334559705</v>
+      </c>
+      <c r="N2">
+        <v>1.5262810828200006</v>
+      </c>
+      <c r="O2">
+        <v>1.5262067140464013</v>
+      </c>
+      <c r="P2">
+        <v>1.5262260218138075</v>
+      </c>
+      <c r="Q2">
+        <v>1.5263592903200114</v>
+      </c>
+      <c r="R2">
+        <v>1.5264332998420962</v>
+      </c>
+      <c r="S2">
+        <v>1.5263482625615363</v>
+      </c>
+      <c r="T2">
+        <v>1.5262315168212166</v>
+      </c>
+      <c r="U2">
+        <v>1.526218619880567</v>
+      </c>
+      <c r="V2">
+        <v>1.5262298419365499</v>
+      </c>
+      <c r="W2">
+        <v>1.5261144066930949</v>
+      </c>
+      <c r="X2">
+        <v>1.525914017606214</v>
+      </c>
+      <c r="Y2">
+        <v>1.5257936308946307</v>
+      </c>
+      <c r="Z2">
+        <v>1.5257680877731492</v>
+      </c>
+      <c r="AA2">
+        <v>1.5256736285874044</v>
+      </c>
+      <c r="AB2">
+        <v>1.5254366384992504</v>
+      </c>
+      <c r="AC2">
+        <v>1.525238157644355</v>
+      </c>
+      <c r="AD2">
+        <v>1.5252266283461062</v>
+      </c>
+      <c r="AE2">
+        <v>1.5252862727102734</v>
+      </c>
+      <c r="AF2">
+        <v>1.5252677354814179</v>
+      </c>
+      <c r="AG2">
+        <v>1.5252028867443601</v>
+      </c>
+      <c r="AH2">
+        <v>1.525263783119333</v>
+      </c>
+      <c r="AI2">
+        <v>1.5254891446069134</v>
+      </c>
+      <c r="AJ2">
+        <v>1.5256741010021444</v>
+      </c>
+      <c r="AK2">
+        <v>1.525725584647214</v>
+      </c>
+      <c r="AL2">
+        <v>1.5257997427397538</v>
+      </c>
+      <c r="AM2">
+        <v>1.5259888597637279</v>
+      </c>
+      <c r="AN2">
+        <v>1.5261844070685668</v>
+      </c>
+      <c r="AO2">
+        <v>1.5262281406358076</v>
+      </c>
+      <c r="AP2">
+        <v>1.5261693261253466</v>
+      </c>
+      <c r="AQ2">
+        <v>1.5262212718246344</v>
+      </c>
+      <c r="AR2">
+        <v>1.5263529392611872</v>
+      </c>
+      <c r="AS2">
+        <v>1.5263822999718129</v>
+      </c>
+      <c r="AT2">
+        <v>1.5263071966125326</v>
+      </c>
+      <c r="AU2">
+        <v>1.5262469615990861</v>
+      </c>
+      <c r="AV2">
+        <v>1.5263009545716171</v>
+      </c>
+      <c r="AW2">
+        <v>1.5263441887643479</v>
+      </c>
+      <c r="AX2">
+        <v>1.5261672201149856</v>
+      </c>
+      <c r="AY2">
+        <v>1.5258450132215851</v>
+      </c>
+      <c r="AZ2">
+        <v>1.5255512281580013</v>
+      </c>
+      <c r="BA2">
+        <v>1.5252667502560493</v>
+      </c>
+      <c r="BB2">
+        <v>1.5248489251275763</v>
+      </c>
+      <c r="BC2">
+        <v>1.5242679496181109</v>
+      </c>
+      <c r="BD2">
+        <v>1.5237471962881441</v>
+      </c>
+      <c r="BE2">
+        <v>1.5233733099193394</v>
+      </c>
+      <c r="BF2">
+        <v>1.5229033942122907</v>
+      </c>
+      <c r="BG2">
+        <v>1.5222785850417042</v>
+      </c>
+      <c r="BH2">
+        <v>1.5216792138532518</v>
+      </c>
+      <c r="BI2">
+        <v>1.5212542403460343</v>
+      </c>
+      <c r="BJ2">
+        <v>1.5209549915627114</v>
+      </c>
+      <c r="BK2">
+        <v>1.5205199592891647</v>
+      </c>
+      <c r="BL2">
+        <v>1.5200168397370246</v>
+      </c>
+      <c r="BM2">
+        <v>1.519707154430022</v>
+      </c>
+      <c r="BN2">
+        <v>1.5194574975022834</v>
+      </c>
+      <c r="BO2">
+        <v>1.5190874952136926</v>
+      </c>
+      <c r="BP2">
+        <v>1.5185507372782112</v>
+      </c>
+      <c r="BQ2">
+        <v>1.5180363211971104</v>
+      </c>
+      <c r="BR2">
+        <v>1.5178226360950546</v>
+      </c>
+      <c r="BS2">
+        <v>1.5175177493677661</v>
+      </c>
+      <c r="BT2">
+        <v>1.5168407007256781</v>
+      </c>
+      <c r="BU2">
+        <v>1.516264922054992</v>
+      </c>
+      <c r="BV2">
+        <v>1.5159592161431157</v>
+      </c>
+      <c r="BW2">
+        <v>1.5157731783138455</v>
+      </c>
+      <c r="BX2">
+        <v>1.5154869807734723</v>
+      </c>
+      <c r="BY2">
+        <v>1.514851147471598</v>
+      </c>
+      <c r="BZ2">
+        <v>1.5145529519975212</v>
+      </c>
+      <c r="CA2">
+        <v>1.5149961207972011</v>
+      </c>
+      <c r="CB2">
+        <v>1.514899886346164</v>
+      </c>
+      <c r="CC2">
+        <v>1.5138483742718316</v>
+      </c>
+      <c r="CD2">
+        <v>1.513330972420017</v>
+      </c>
+      <c r="CE2">
+        <v>1.5141168415135202</v>
+      </c>
+      <c r="CF2">
+        <v>1.5149276650750432</v>
+      </c>
+      <c r="CG2">
+        <v>1.5136461548980926</v>
+      </c>
+      <c r="CH2">
+        <v>1.5101237328779418</v>
+      </c>
+      <c r="CI2">
+        <v>1.5077650022151419</v>
+      </c>
+      <c r="CJ2">
+        <v>1.5107773869134853</v>
+      </c>
+      <c r="CK2">
+        <v>1.5183404969291765</v>
+      </c>
+      <c r="CL2">
+        <v>1.5207019456865558</v>
+      </c>
+      <c r="CM2">
+        <v>1.5031797692426034</v>
+      </c>
+      <c r="CN2">
+        <v>1.4557364782864732</v>
+      </c>
+      <c r="CO2">
+        <v>1.3763480720795631</v>
+      </c>
+      <c r="CP2">
+        <v>1.2670445247921924</v>
+      </c>
+      <c r="CQ2">
+        <v>1.1321672192063503</v>
+      </c>
+      <c r="CR2">
+        <v>0.97877575372190795</v>
+      </c>
+      <c r="CS2">
+        <v>0.81508483367078532</v>
+      </c>
+      <c r="CT2">
+        <v>0.6487664089452142</v>
+      </c>
+      <c r="CU2">
+        <v>0.48668327611806517</v>
+      </c>
+      <c r="CV2">
+        <v>0.33602907362330697</v>
+      </c>
+      <c r="CW2">
+        <v>0.2062990964860692</v>
+      </c>
+      <c r="CX2">
+        <v>0.1083948759173174</v>
+      </c>
+      <c r="CY2">
+        <v>4.7858324503776598E-2</v>
+      </c>
+      <c r="CZ2">
+        <v>1.8821412515957783E-2</v>
+      </c>
+      <c r="DA2">
+        <v>8.2962639729193578E-3</v>
+      </c>
+      <c r="DB2">
+        <v>6.8705951520887593E-3</v>
+      </c>
+      <c r="DC2">
+        <v>8.8793403018316546E-3</v>
+      </c>
+      <c r="DD2">
+        <v>1.0059587743578189E-2</v>
+      </c>
+      <c r="DE2">
+        <v>9.5889398454073373E-3</v>
+      </c>
+      <c r="DF2">
+        <v>8.4880041080658639E-3</v>
+      </c>
+      <c r="DG2">
+        <v>8.0113458891341218E-3</v>
+      </c>
+      <c r="DH2">
+        <v>8.3184224271842366E-3</v>
+      </c>
+      <c r="DI2">
+        <v>8.4818298306327412E-3</v>
+      </c>
+      <c r="DJ2">
+        <v>8.0443360770167723E-3</v>
+      </c>
+      <c r="DK2">
+        <v>7.5316688990723834E-3</v>
+      </c>
+      <c r="DL2">
+        <v>7.6674303139162387E-3</v>
+      </c>
+      <c r="DM2">
+        <v>8.1287947944547884E-3</v>
+      </c>
+      <c r="DN2">
+        <v>8.1127091917667562E-3</v>
+      </c>
+      <c r="DO2">
+        <v>7.6323227262003008E-3</v>
+      </c>
+      <c r="DP2">
+        <v>7.4448976376214164E-3</v>
+      </c>
+      <c r="DQ2">
+        <v>7.7713864060567463E-3</v>
+      </c>
+      <c r="DR2">
+        <v>7.6875965574549855E-3</v>
+      </c>
+      <c r="DS2">
+        <v>7.5428638439906459E-3</v>
+      </c>
+      <c r="DT2">
+        <v>8.7825675002132422E-3</v>
+      </c>
+      <c r="DU2">
+        <v>8.265019327992406E-3</v>
+      </c>
+      <c r="DV2">
+        <v>1.2654127611547791E-2</v>
+      </c>
+      <c r="DW2">
+        <v>1.6125067127777105E-2</v>
+      </c>
+      <c r="DX2">
+        <v>5.5041904752392974E-35</v>
       </c>
     </row>
   </sheetData>
@@ -2089,19 +3824,527 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4E261BB3-0E66-4719-BE9C-002FE9256592}">
-          <x14:colorSeries rgb="FF000000"/>
-          <x14:colorNegative rgb="FF0070C0"/>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D7EB8D97-A2B5-4769-924B-0EEB8B33B7EA}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FF0070C0"/>
-          <x14:colorLast rgb="FF0070C0"/>
-          <x14:colorHigh rgb="FF0070C0"/>
-          <x14:colorLow rgb="FF0070C0"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!1:1</xm:f>
+              <xm:f>Sheet1!A2:A2</xm:f>
               <xm:sqref>A2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B2:B2</xm:f>
+              <xm:sqref>B2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C2:C2</xm:f>
+              <xm:sqref>C2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D2:D2</xm:f>
+              <xm:sqref>D2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!E2:E2</xm:f>
+              <xm:sqref>E2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!F2:F2</xm:f>
+              <xm:sqref>F2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!G2:G2</xm:f>
+              <xm:sqref>G2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!H2:H2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!I2:I2</xm:f>
+              <xm:sqref>I2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!J2:J2</xm:f>
+              <xm:sqref>J2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!K2:K2</xm:f>
+              <xm:sqref>K2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!L2:L2</xm:f>
+              <xm:sqref>L2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M2:M2</xm:f>
+              <xm:sqref>M2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!N2:N2</xm:f>
+              <xm:sqref>N2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!O2:O2</xm:f>
+              <xm:sqref>O2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!P2:P2</xm:f>
+              <xm:sqref>P2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Q2:Q2</xm:f>
+              <xm:sqref>Q2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!R2:R2</xm:f>
+              <xm:sqref>R2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!S2:S2</xm:f>
+              <xm:sqref>S2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!T2:T2</xm:f>
+              <xm:sqref>T2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!U2:U2</xm:f>
+              <xm:sqref>U2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!V2:V2</xm:f>
+              <xm:sqref>V2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!W2:W2</xm:f>
+              <xm:sqref>W2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!X2:X2</xm:f>
+              <xm:sqref>X2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Y2:Y2</xm:f>
+              <xm:sqref>Y2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Z2:Z2</xm:f>
+              <xm:sqref>Z2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AA2:AA2</xm:f>
+              <xm:sqref>AA2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AB2:AB2</xm:f>
+              <xm:sqref>AB2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AC2:AC2</xm:f>
+              <xm:sqref>AC2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AD2:AD2</xm:f>
+              <xm:sqref>AD2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AE2:AE2</xm:f>
+              <xm:sqref>AE2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AF2:AF2</xm:f>
+              <xm:sqref>AF2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AG2:AG2</xm:f>
+              <xm:sqref>AG2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AH2:AH2</xm:f>
+              <xm:sqref>AH2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AI2:AI2</xm:f>
+              <xm:sqref>AI2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AJ2:AJ2</xm:f>
+              <xm:sqref>AJ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AK2:AK2</xm:f>
+              <xm:sqref>AK2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AL2:AL2</xm:f>
+              <xm:sqref>AL2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AM2:AM2</xm:f>
+              <xm:sqref>AM2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AN2:AN2</xm:f>
+              <xm:sqref>AN2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AO2:AO2</xm:f>
+              <xm:sqref>AO2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AP2:AP2</xm:f>
+              <xm:sqref>AP2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AQ2:AQ2</xm:f>
+              <xm:sqref>AQ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AR2:AR2</xm:f>
+              <xm:sqref>AR2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AS2:AS2</xm:f>
+              <xm:sqref>AS2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AT2:AT2</xm:f>
+              <xm:sqref>AT2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AU2:AU2</xm:f>
+              <xm:sqref>AU2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AV2:AV2</xm:f>
+              <xm:sqref>AV2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AW2:AW2</xm:f>
+              <xm:sqref>AW2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AX2:AX2</xm:f>
+              <xm:sqref>AX2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AY2:AY2</xm:f>
+              <xm:sqref>AY2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AZ2:AZ2</xm:f>
+              <xm:sqref>AZ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BA2:BA2</xm:f>
+              <xm:sqref>BA2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BB2:BB2</xm:f>
+              <xm:sqref>BB2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BC2:BC2</xm:f>
+              <xm:sqref>BC2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BD2:BD2</xm:f>
+              <xm:sqref>BD2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BE2:BE2</xm:f>
+              <xm:sqref>BE2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BF2:BF2</xm:f>
+              <xm:sqref>BF2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BG2:BG2</xm:f>
+              <xm:sqref>BG2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BH2:BH2</xm:f>
+              <xm:sqref>BH2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BI2:BI2</xm:f>
+              <xm:sqref>BI2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BJ2:BJ2</xm:f>
+              <xm:sqref>BJ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BK2:BK2</xm:f>
+              <xm:sqref>BK2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BL2:BL2</xm:f>
+              <xm:sqref>BL2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BM2:BM2</xm:f>
+              <xm:sqref>BM2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BN2:BN2</xm:f>
+              <xm:sqref>BN2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BO2:BO2</xm:f>
+              <xm:sqref>BO2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BP2:BP2</xm:f>
+              <xm:sqref>BP2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BQ2:BQ2</xm:f>
+              <xm:sqref>BQ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BR2:BR2</xm:f>
+              <xm:sqref>BR2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BS2:BS2</xm:f>
+              <xm:sqref>BS2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BT2:BT2</xm:f>
+              <xm:sqref>BT2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BU2:BU2</xm:f>
+              <xm:sqref>BU2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BV2:BV2</xm:f>
+              <xm:sqref>BV2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BW2:BW2</xm:f>
+              <xm:sqref>BW2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BX2:BX2</xm:f>
+              <xm:sqref>BX2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BY2:BY2</xm:f>
+              <xm:sqref>BY2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BZ2:BZ2</xm:f>
+              <xm:sqref>BZ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CA2:CA2</xm:f>
+              <xm:sqref>CA2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CB2:CB2</xm:f>
+              <xm:sqref>CB2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CC2:CC2</xm:f>
+              <xm:sqref>CC2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CD2:CD2</xm:f>
+              <xm:sqref>CD2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CE2:CE2</xm:f>
+              <xm:sqref>CE2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CF2:CF2</xm:f>
+              <xm:sqref>CF2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CG2:CG2</xm:f>
+              <xm:sqref>CG2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CH2:CH2</xm:f>
+              <xm:sqref>CH2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CI2:CI2</xm:f>
+              <xm:sqref>CI2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CJ2:CJ2</xm:f>
+              <xm:sqref>CJ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CK2:CK2</xm:f>
+              <xm:sqref>CK2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CL2:CL2</xm:f>
+              <xm:sqref>CL2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CM2:CM2</xm:f>
+              <xm:sqref>CM2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CN2:CN2</xm:f>
+              <xm:sqref>CN2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CO2:CO2</xm:f>
+              <xm:sqref>CO2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CP2:CP2</xm:f>
+              <xm:sqref>CP2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CQ2:CQ2</xm:f>
+              <xm:sqref>CQ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CR2:CR2</xm:f>
+              <xm:sqref>CR2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CS2:CS2</xm:f>
+              <xm:sqref>CS2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CT2:CT2</xm:f>
+              <xm:sqref>CT2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CU2:CU2</xm:f>
+              <xm:sqref>CU2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CV2:CV2</xm:f>
+              <xm:sqref>CV2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CW2:CW2</xm:f>
+              <xm:sqref>CW2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CX2:CX2</xm:f>
+              <xm:sqref>CX2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CY2:CY2</xm:f>
+              <xm:sqref>CY2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CZ2:CZ2</xm:f>
+              <xm:sqref>CZ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DA2:DA2</xm:f>
+              <xm:sqref>DA2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DB2:DB2</xm:f>
+              <xm:sqref>DB2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DC2:DC2</xm:f>
+              <xm:sqref>DC2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DD2:DD2</xm:f>
+              <xm:sqref>DD2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DE2:DE2</xm:f>
+              <xm:sqref>DE2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DF2:DF2</xm:f>
+              <xm:sqref>DF2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DG2:DG2</xm:f>
+              <xm:sqref>DG2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DH2:DH2</xm:f>
+              <xm:sqref>DH2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DI2:DI2</xm:f>
+              <xm:sqref>DI2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DJ2:DJ2</xm:f>
+              <xm:sqref>DJ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DK2:DK2</xm:f>
+              <xm:sqref>DK2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DL2:DL2</xm:f>
+              <xm:sqref>DL2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DM2:DM2</xm:f>
+              <xm:sqref>DM2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DN2:DN2</xm:f>
+              <xm:sqref>DN2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DO2:DO2</xm:f>
+              <xm:sqref>DO2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DP2:DP2</xm:f>
+              <xm:sqref>DP2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DQ2:DQ2</xm:f>
+              <xm:sqref>DQ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DR2:DR2</xm:f>
+              <xm:sqref>DR2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DS2:DS2</xm:f>
+              <xm:sqref>DS2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DT2:DT2</xm:f>
+              <xm:sqref>DT2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DU2:DU2</xm:f>
+              <xm:sqref>DU2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DV2:DV2</xm:f>
+              <xm:sqref>DV2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DW2:DW2</xm:f>
+              <xm:sqref>DW2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DX2:DX2</xm:f>
+              <xm:sqref>DX2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/MR Thermometry/PRF Based/DataBase.xlsx
+++ b/MR Thermometry/PRF Based/DataBase.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98425D0A-AD74-40FC-A80E-3B97C21125F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A055323-9211-47A3-8AAE-16BB3291D943}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="2235" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1586,6 +1587,509 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BadShim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4EC-406B-A15C-02652AF523D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GoodShim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F4EC-406B-A15C-02652AF523D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="593738344"/>
+        <c:axId val="593739656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="593738344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>BW (kHz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593739656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="593739656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Temperature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>℃</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593738344"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1666,6 +2170,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2679,6 +3223,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2767,6 +3827,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D415BA86-7039-4F91-8091-C9F45EA67A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3040,7 +4141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
@@ -3824,6 +4925,530 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D60B60FF-8DDE-4943-85F0-636704988011}">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!A1:A1</xm:f>
+              <xm:sqref>A1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B1:B1</xm:f>
+              <xm:sqref>B1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C1:C1</xm:f>
+              <xm:sqref>C1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D1:D1</xm:f>
+              <xm:sqref>D1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!E1:E1</xm:f>
+              <xm:sqref>E1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!F1:F1</xm:f>
+              <xm:sqref>F1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!G1:G1</xm:f>
+              <xm:sqref>G1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!H1:H1</xm:f>
+              <xm:sqref>H1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!I1:I1</xm:f>
+              <xm:sqref>I1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!J1:J1</xm:f>
+              <xm:sqref>J1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!K1:K1</xm:f>
+              <xm:sqref>K1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!L1:L1</xm:f>
+              <xm:sqref>L1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M1:M1</xm:f>
+              <xm:sqref>M1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!N1:N1</xm:f>
+              <xm:sqref>N1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!O1:O1</xm:f>
+              <xm:sqref>O1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!P1:P1</xm:f>
+              <xm:sqref>P1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Q1:Q1</xm:f>
+              <xm:sqref>Q1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!R1:R1</xm:f>
+              <xm:sqref>R1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!S1:S1</xm:f>
+              <xm:sqref>S1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!T1:T1</xm:f>
+              <xm:sqref>T1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!U1:U1</xm:f>
+              <xm:sqref>U1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!V1:V1</xm:f>
+              <xm:sqref>V1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!W1:W1</xm:f>
+              <xm:sqref>W1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!X1:X1</xm:f>
+              <xm:sqref>X1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Y1:Y1</xm:f>
+              <xm:sqref>Y1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Z1:Z1</xm:f>
+              <xm:sqref>Z1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AA1:AA1</xm:f>
+              <xm:sqref>AA1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AB1:AB1</xm:f>
+              <xm:sqref>AB1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AC1:AC1</xm:f>
+              <xm:sqref>AC1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AD1:AD1</xm:f>
+              <xm:sqref>AD1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AE1:AE1</xm:f>
+              <xm:sqref>AE1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AF1:AF1</xm:f>
+              <xm:sqref>AF1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AG1:AG1</xm:f>
+              <xm:sqref>AG1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AH1:AH1</xm:f>
+              <xm:sqref>AH1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AI1:AI1</xm:f>
+              <xm:sqref>AI1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AJ1:AJ1</xm:f>
+              <xm:sqref>AJ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AK1:AK1</xm:f>
+              <xm:sqref>AK1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AL1:AL1</xm:f>
+              <xm:sqref>AL1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AM1:AM1</xm:f>
+              <xm:sqref>AM1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AN1:AN1</xm:f>
+              <xm:sqref>AN1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AO1:AO1</xm:f>
+              <xm:sqref>AO1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AP1:AP1</xm:f>
+              <xm:sqref>AP1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AQ1:AQ1</xm:f>
+              <xm:sqref>AQ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AR1:AR1</xm:f>
+              <xm:sqref>AR1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AS1:AS1</xm:f>
+              <xm:sqref>AS1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AT1:AT1</xm:f>
+              <xm:sqref>AT1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AU1:AU1</xm:f>
+              <xm:sqref>AU1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AV1:AV1</xm:f>
+              <xm:sqref>AV1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AW1:AW1</xm:f>
+              <xm:sqref>AW1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AX1:AX1</xm:f>
+              <xm:sqref>AX1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AY1:AY1</xm:f>
+              <xm:sqref>AY1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AZ1:AZ1</xm:f>
+              <xm:sqref>AZ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BA1:BA1</xm:f>
+              <xm:sqref>BA1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BB1:BB1</xm:f>
+              <xm:sqref>BB1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BC1:BC1</xm:f>
+              <xm:sqref>BC1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BD1:BD1</xm:f>
+              <xm:sqref>BD1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BE1:BE1</xm:f>
+              <xm:sqref>BE1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BF1:BF1</xm:f>
+              <xm:sqref>BF1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BG1:BG1</xm:f>
+              <xm:sqref>BG1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BH1:BH1</xm:f>
+              <xm:sqref>BH1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BI1:BI1</xm:f>
+              <xm:sqref>BI1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BJ1:BJ1</xm:f>
+              <xm:sqref>BJ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BK1:BK1</xm:f>
+              <xm:sqref>BK1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BL1:BL1</xm:f>
+              <xm:sqref>BL1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BM1:BM1</xm:f>
+              <xm:sqref>BM1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BN1:BN1</xm:f>
+              <xm:sqref>BN1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BO1:BO1</xm:f>
+              <xm:sqref>BO1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BP1:BP1</xm:f>
+              <xm:sqref>BP1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BQ1:BQ1</xm:f>
+              <xm:sqref>BQ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BR1:BR1</xm:f>
+              <xm:sqref>BR1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BS1:BS1</xm:f>
+              <xm:sqref>BS1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BT1:BT1</xm:f>
+              <xm:sqref>BT1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BU1:BU1</xm:f>
+              <xm:sqref>BU1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BV1:BV1</xm:f>
+              <xm:sqref>BV1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BW1:BW1</xm:f>
+              <xm:sqref>BW1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BX1:BX1</xm:f>
+              <xm:sqref>BX1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BY1:BY1</xm:f>
+              <xm:sqref>BY1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BZ1:BZ1</xm:f>
+              <xm:sqref>BZ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CA1:CA1</xm:f>
+              <xm:sqref>CA1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CB1:CB1</xm:f>
+              <xm:sqref>CB1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CC1:CC1</xm:f>
+              <xm:sqref>CC1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CD1:CD1</xm:f>
+              <xm:sqref>CD1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CE1:CE1</xm:f>
+              <xm:sqref>CE1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CF1:CF1</xm:f>
+              <xm:sqref>CF1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CG1:CG1</xm:f>
+              <xm:sqref>CG1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CH1:CH1</xm:f>
+              <xm:sqref>CH1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CI1:CI1</xm:f>
+              <xm:sqref>CI1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CJ1:CJ1</xm:f>
+              <xm:sqref>CJ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CK1:CK1</xm:f>
+              <xm:sqref>CK1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CL1:CL1</xm:f>
+              <xm:sqref>CL1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CM1:CM1</xm:f>
+              <xm:sqref>CM1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CN1:CN1</xm:f>
+              <xm:sqref>CN1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CO1:CO1</xm:f>
+              <xm:sqref>CO1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CP1:CP1</xm:f>
+              <xm:sqref>CP1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CQ1:CQ1</xm:f>
+              <xm:sqref>CQ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CR1:CR1</xm:f>
+              <xm:sqref>CR1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CS1:CS1</xm:f>
+              <xm:sqref>CS1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CT1:CT1</xm:f>
+              <xm:sqref>CT1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CU1:CU1</xm:f>
+              <xm:sqref>CU1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CV1:CV1</xm:f>
+              <xm:sqref>CV1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CW1:CW1</xm:f>
+              <xm:sqref>CW1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CX1:CX1</xm:f>
+              <xm:sqref>CX1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CY1:CY1</xm:f>
+              <xm:sqref>CY1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CZ1:CZ1</xm:f>
+              <xm:sqref>CZ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DA1:DA1</xm:f>
+              <xm:sqref>DA1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DB1:DB1</xm:f>
+              <xm:sqref>DB1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DC1:DC1</xm:f>
+              <xm:sqref>DC1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DD1:DD1</xm:f>
+              <xm:sqref>DD1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DE1:DE1</xm:f>
+              <xm:sqref>DE1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DF1:DF1</xm:f>
+              <xm:sqref>DF1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DG1:DG1</xm:f>
+              <xm:sqref>DG1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DH1:DH1</xm:f>
+              <xm:sqref>DH1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DI1:DI1</xm:f>
+              <xm:sqref>DI1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DJ1:DJ1</xm:f>
+              <xm:sqref>DJ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DK1:DK1</xm:f>
+              <xm:sqref>DK1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DL1:DL1</xm:f>
+              <xm:sqref>DL1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DM1:DM1</xm:f>
+              <xm:sqref>DM1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DN1:DN1</xm:f>
+              <xm:sqref>DN1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DO1:DO1</xm:f>
+              <xm:sqref>DO1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DP1:DP1</xm:f>
+              <xm:sqref>DP1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DQ1:DQ1</xm:f>
+              <xm:sqref>DQ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DR1:DR1</xm:f>
+              <xm:sqref>DR1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DS1:DS1</xm:f>
+              <xm:sqref>DS1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DT1:DT1</xm:f>
+              <xm:sqref>DT1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DU1:DU1</xm:f>
+              <xm:sqref>DU1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DV1:DV1</xm:f>
+              <xm:sqref>DV1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DW1:DW1</xm:f>
+              <xm:sqref>DW1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DX1:DX1</xm:f>
+              <xm:sqref>DX1</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D7EB8D97-A2B5-4769-924B-0EEB8B33B7EA}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -4348,532 +5973,75 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D60B60FF-8DDE-4943-85F0-636704988011}">
-          <x14:colorSeries rgb="FF000000"/>
-          <x14:colorNegative rgb="FF0070C0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FF0070C0"/>
-          <x14:colorLast rgb="FF0070C0"/>
-          <x14:colorHigh rgb="FF0070C0"/>
-          <x14:colorLow rgb="FF0070C0"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!A1:A1</xm:f>
-              <xm:sqref>A1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B1:B1</xm:f>
-              <xm:sqref>B1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C1:C1</xm:f>
-              <xm:sqref>C1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D1:D1</xm:f>
-              <xm:sqref>D1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!E1:E1</xm:f>
-              <xm:sqref>E1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!F1:F1</xm:f>
-              <xm:sqref>F1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!G1:G1</xm:f>
-              <xm:sqref>G1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!H1:H1</xm:f>
-              <xm:sqref>H1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!I1:I1</xm:f>
-              <xm:sqref>I1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!J1:J1</xm:f>
-              <xm:sqref>J1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!K1:K1</xm:f>
-              <xm:sqref>K1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!L1:L1</xm:f>
-              <xm:sqref>L1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!M1:M1</xm:f>
-              <xm:sqref>M1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!N1:N1</xm:f>
-              <xm:sqref>N1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!O1:O1</xm:f>
-              <xm:sqref>O1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!P1:P1</xm:f>
-              <xm:sqref>P1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!Q1:Q1</xm:f>
-              <xm:sqref>Q1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!R1:R1</xm:f>
-              <xm:sqref>R1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!S1:S1</xm:f>
-              <xm:sqref>S1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!T1:T1</xm:f>
-              <xm:sqref>T1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!U1:U1</xm:f>
-              <xm:sqref>U1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!V1:V1</xm:f>
-              <xm:sqref>V1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!W1:W1</xm:f>
-              <xm:sqref>W1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!X1:X1</xm:f>
-              <xm:sqref>X1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!Y1:Y1</xm:f>
-              <xm:sqref>Y1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!Z1:Z1</xm:f>
-              <xm:sqref>Z1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AA1:AA1</xm:f>
-              <xm:sqref>AA1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AB1:AB1</xm:f>
-              <xm:sqref>AB1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AC1:AC1</xm:f>
-              <xm:sqref>AC1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AD1:AD1</xm:f>
-              <xm:sqref>AD1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AE1:AE1</xm:f>
-              <xm:sqref>AE1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AF1:AF1</xm:f>
-              <xm:sqref>AF1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AG1:AG1</xm:f>
-              <xm:sqref>AG1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AH1:AH1</xm:f>
-              <xm:sqref>AH1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AI1:AI1</xm:f>
-              <xm:sqref>AI1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AJ1:AJ1</xm:f>
-              <xm:sqref>AJ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AK1:AK1</xm:f>
-              <xm:sqref>AK1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AL1:AL1</xm:f>
-              <xm:sqref>AL1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AM1:AM1</xm:f>
-              <xm:sqref>AM1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AN1:AN1</xm:f>
-              <xm:sqref>AN1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AO1:AO1</xm:f>
-              <xm:sqref>AO1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AP1:AP1</xm:f>
-              <xm:sqref>AP1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AQ1:AQ1</xm:f>
-              <xm:sqref>AQ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AR1:AR1</xm:f>
-              <xm:sqref>AR1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AS1:AS1</xm:f>
-              <xm:sqref>AS1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AT1:AT1</xm:f>
-              <xm:sqref>AT1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AU1:AU1</xm:f>
-              <xm:sqref>AU1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AV1:AV1</xm:f>
-              <xm:sqref>AV1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AW1:AW1</xm:f>
-              <xm:sqref>AW1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AX1:AX1</xm:f>
-              <xm:sqref>AX1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AY1:AY1</xm:f>
-              <xm:sqref>AY1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AZ1:AZ1</xm:f>
-              <xm:sqref>AZ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BA1:BA1</xm:f>
-              <xm:sqref>BA1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BB1:BB1</xm:f>
-              <xm:sqref>BB1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BC1:BC1</xm:f>
-              <xm:sqref>BC1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BD1:BD1</xm:f>
-              <xm:sqref>BD1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BE1:BE1</xm:f>
-              <xm:sqref>BE1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BF1:BF1</xm:f>
-              <xm:sqref>BF1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BG1:BG1</xm:f>
-              <xm:sqref>BG1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BH1:BH1</xm:f>
-              <xm:sqref>BH1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BI1:BI1</xm:f>
-              <xm:sqref>BI1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BJ1:BJ1</xm:f>
-              <xm:sqref>BJ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BK1:BK1</xm:f>
-              <xm:sqref>BK1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BL1:BL1</xm:f>
-              <xm:sqref>BL1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BM1:BM1</xm:f>
-              <xm:sqref>BM1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BN1:BN1</xm:f>
-              <xm:sqref>BN1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BO1:BO1</xm:f>
-              <xm:sqref>BO1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BP1:BP1</xm:f>
-              <xm:sqref>BP1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BQ1:BQ1</xm:f>
-              <xm:sqref>BQ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BR1:BR1</xm:f>
-              <xm:sqref>BR1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BS1:BS1</xm:f>
-              <xm:sqref>BS1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BT1:BT1</xm:f>
-              <xm:sqref>BT1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BU1:BU1</xm:f>
-              <xm:sqref>BU1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BV1:BV1</xm:f>
-              <xm:sqref>BV1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BW1:BW1</xm:f>
-              <xm:sqref>BW1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BX1:BX1</xm:f>
-              <xm:sqref>BX1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BY1:BY1</xm:f>
-              <xm:sqref>BY1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BZ1:BZ1</xm:f>
-              <xm:sqref>BZ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CA1:CA1</xm:f>
-              <xm:sqref>CA1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CB1:CB1</xm:f>
-              <xm:sqref>CB1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CC1:CC1</xm:f>
-              <xm:sqref>CC1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CD1:CD1</xm:f>
-              <xm:sqref>CD1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CE1:CE1</xm:f>
-              <xm:sqref>CE1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CF1:CF1</xm:f>
-              <xm:sqref>CF1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CG1:CG1</xm:f>
-              <xm:sqref>CG1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CH1:CH1</xm:f>
-              <xm:sqref>CH1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CI1:CI1</xm:f>
-              <xm:sqref>CI1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CJ1:CJ1</xm:f>
-              <xm:sqref>CJ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CK1:CK1</xm:f>
-              <xm:sqref>CK1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CL1:CL1</xm:f>
-              <xm:sqref>CL1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CM1:CM1</xm:f>
-              <xm:sqref>CM1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CN1:CN1</xm:f>
-              <xm:sqref>CN1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CO1:CO1</xm:f>
-              <xm:sqref>CO1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CP1:CP1</xm:f>
-              <xm:sqref>CP1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CQ1:CQ1</xm:f>
-              <xm:sqref>CQ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CR1:CR1</xm:f>
-              <xm:sqref>CR1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CS1:CS1</xm:f>
-              <xm:sqref>CS1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CT1:CT1</xm:f>
-              <xm:sqref>CT1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CU1:CU1</xm:f>
-              <xm:sqref>CU1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CV1:CV1</xm:f>
-              <xm:sqref>CV1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CW1:CW1</xm:f>
-              <xm:sqref>CW1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CX1:CX1</xm:f>
-              <xm:sqref>CX1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CY1:CY1</xm:f>
-              <xm:sqref>CY1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CZ1:CZ1</xm:f>
-              <xm:sqref>CZ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DA1:DA1</xm:f>
-              <xm:sqref>DA1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DB1:DB1</xm:f>
-              <xm:sqref>DB1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DC1:DC1</xm:f>
-              <xm:sqref>DC1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DD1:DD1</xm:f>
-              <xm:sqref>DD1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DE1:DE1</xm:f>
-              <xm:sqref>DE1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DF1:DF1</xm:f>
-              <xm:sqref>DF1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DG1:DG1</xm:f>
-              <xm:sqref>DG1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DH1:DH1</xm:f>
-              <xm:sqref>DH1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DI1:DI1</xm:f>
-              <xm:sqref>DI1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DJ1:DJ1</xm:f>
-              <xm:sqref>DJ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DK1:DK1</xm:f>
-              <xm:sqref>DK1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DL1:DL1</xm:f>
-              <xm:sqref>DL1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DM1:DM1</xm:f>
-              <xm:sqref>DM1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DN1:DN1</xm:f>
-              <xm:sqref>DN1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DO1:DO1</xm:f>
-              <xm:sqref>DO1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DP1:DP1</xm:f>
-              <xm:sqref>DP1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DQ1:DQ1</xm:f>
-              <xm:sqref>DQ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DR1:DR1</xm:f>
-              <xm:sqref>DR1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DS1:DS1</xm:f>
-              <xm:sqref>DS1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DT1:DT1</xm:f>
-              <xm:sqref>DT1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DU1:DU1</xm:f>
-              <xm:sqref>DU1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DV1:DV1</xm:f>
-              <xm:sqref>DV1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DW1:DW1</xm:f>
-              <xm:sqref>DW1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DX1:DX1</xm:f>
-              <xm:sqref>DX1</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B8196E-8B4A-4EFC-A9C3-DA5A87D438EC}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>10.59</v>
+      </c>
+      <c r="B1">
+        <v>10.5</v>
+      </c>
+      <c r="C1">
+        <v>10.62</v>
+      </c>
+      <c r="D1">
+        <v>10.49</v>
+      </c>
+      <c r="E1">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13.13</v>
+      </c>
+      <c r="B2">
+        <v>11.84</v>
+      </c>
+      <c r="C2">
+        <v>10.73</v>
+      </c>
+      <c r="D2">
+        <v>10.55</v>
+      </c>
+      <c r="E2">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5.81</v>
+      </c>
+      <c r="B3">
+        <v>8.33</v>
+      </c>
+      <c r="C3">
+        <v>15.63</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/MR Thermometry/PRF Based/DataBase.xlsx
+++ b/MR Thermometry/PRF Based/DataBase.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A055323-9211-47A3-8AAE-16BB3291D943}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694039A-74D7-4DAA-AD37-E0E3CE812A43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2235" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1601,28 +1602,187 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Temperature vs BWs</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15171377015373078"/>
+          <c:y val="0.15022222222222223"/>
+          <c:w val="0.80953576115485559"/>
+          <c:h val="0.65919265091863521"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>BadShim</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F4EC-406B-A15C-02652AF523D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GoodShim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1635,21 +1795,31 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:yVal>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet2!$A$1:$E$1</c:f>
               <c:numCache>
@@ -1672,84 +1842,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F4EC-406B-A15C-02652AF523D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>GoodShim</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>13.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F4EC-406B-A15C-02652AF523D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1761,32 +1858,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="593738344"/>
         <c:axId val="593739656"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="593738344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1807,13 +1890,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+                  <a:rPr lang="en-US" sz="1050">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>BW (kHz)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+                <a:endParaRPr lang="zh-CN" sz="1050">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
@@ -1849,19 +1932,14 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1878,9 +1956,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1888,10 +1966,12 @@
         </c:txPr>
         <c:crossAx val="593739656"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="593739656"/>
         <c:scaling>
@@ -1934,28 +2014,1036 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+                  <a:rPr lang="en-US" sz="1050">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Temperature</a:t>
+                  <a:t>Temperature (</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+                  <a:rPr lang="zh-CN" sz="1050">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>℃</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+                  <a:rPr lang="en-US" sz="1050">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1050">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593738344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74398762654668171"/>
+          <c:y val="0.15566614173228344"/>
+          <c:w val="0.22471761342332208"/>
+          <c:h val="0.15563324584426946"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Temperature</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Evolution at Hottest Location</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BadShim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$3:$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$1:$AN$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-3.0625252955515837E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.4483062277798856E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.4991738293620014E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.21081871897687593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.2563853327583172E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4072481448000222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2721723186435554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1670429701092155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5830250461433462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7325033918517434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9569451204288999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.990531774550144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.249912393713119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.126889912428409</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.26781597167936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.822454891746442</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.370905515140235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.05367874979199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.524606923578478</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.04852253363336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5953705137468894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.074032224423572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.6563509061373551</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.625778173695851</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.33346312699015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9320618623923398</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8034043444365127</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3949249789961646</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1741154035602959</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8693543600575833</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0442965590276634</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.5861974190826302</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3499920592574624</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2302545280139228</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.2516111397898424</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.090348662306913</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.8663042990384202</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.5902870080604634</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4738125721726174</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4770537384068465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9914-435F-ACBD-2C87988078CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GoodShim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$3:$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$AN$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-9.7528404788864825E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.9847512495894899E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8963934532094747E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.8624812873268186E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.8460116632027529E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2071013234007308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6172497470165403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8547885461936868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8394906076783872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1519399749232759</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1173134342140116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9718809825498074</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.548818794394796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.591760813213927</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.188674949493763</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5876828489254748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0511188483178397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9363981951206757</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2810136742671858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0166966927804264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7509961877100766</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.424107459562209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0694383485525245</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5188184044217401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4834025771411632</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1912570431189824</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3022452922549483</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.914685277605142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5397824870039667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3608575758582484</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3477878164607766</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3254735961552946</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0236973583397635</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8993816012644364</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7982372700181664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5661563580101383</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.337636495763439</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4339710883676204</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1469288455342337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1788685053140817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9914-435F-ACBD-2C87988078CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="755689312"/>
+        <c:axId val="755698824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="755689312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755698824"/>
+        <c:crossesAt val="-2"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="755698824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Temperature(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>℃</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
@@ -2003,14 +3091,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2034,9 +3116,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593738344"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossAx val="755689312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2046,6 +3128,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2210,6 +3323,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3243,7 +4396,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3270,8 +4423,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3351,6 +4504,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3361,6 +4519,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3372,7 +4535,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3392,6 +4555,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3404,10 +4570,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3447,15 +4613,52 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3466,8 +4669,79 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3485,6 +4759,413 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
     <cs:lnRef idx="0"/>
@@ -3568,8 +5249,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3701,20 +5382,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3728,17 +5408,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3840,15 +5509,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3856,6 +5525,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D415BA86-7039-4F91-8091-C9F45EA67A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E3AE50-B975-4683-BB9A-1E93C4256A29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4925,6 +6635,530 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D7EB8D97-A2B5-4769-924B-0EEB8B33B7EA}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!A2:A2</xm:f>
+              <xm:sqref>A2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B2:B2</xm:f>
+              <xm:sqref>B2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C2:C2</xm:f>
+              <xm:sqref>C2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D2:D2</xm:f>
+              <xm:sqref>D2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!E2:E2</xm:f>
+              <xm:sqref>E2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!F2:F2</xm:f>
+              <xm:sqref>F2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!G2:G2</xm:f>
+              <xm:sqref>G2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!H2:H2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!I2:I2</xm:f>
+              <xm:sqref>I2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!J2:J2</xm:f>
+              <xm:sqref>J2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!K2:K2</xm:f>
+              <xm:sqref>K2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!L2:L2</xm:f>
+              <xm:sqref>L2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M2:M2</xm:f>
+              <xm:sqref>M2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!N2:N2</xm:f>
+              <xm:sqref>N2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!O2:O2</xm:f>
+              <xm:sqref>O2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!P2:P2</xm:f>
+              <xm:sqref>P2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Q2:Q2</xm:f>
+              <xm:sqref>Q2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!R2:R2</xm:f>
+              <xm:sqref>R2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!S2:S2</xm:f>
+              <xm:sqref>S2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!T2:T2</xm:f>
+              <xm:sqref>T2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!U2:U2</xm:f>
+              <xm:sqref>U2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!V2:V2</xm:f>
+              <xm:sqref>V2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!W2:W2</xm:f>
+              <xm:sqref>W2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!X2:X2</xm:f>
+              <xm:sqref>X2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Y2:Y2</xm:f>
+              <xm:sqref>Y2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Z2:Z2</xm:f>
+              <xm:sqref>Z2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AA2:AA2</xm:f>
+              <xm:sqref>AA2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AB2:AB2</xm:f>
+              <xm:sqref>AB2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AC2:AC2</xm:f>
+              <xm:sqref>AC2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AD2:AD2</xm:f>
+              <xm:sqref>AD2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AE2:AE2</xm:f>
+              <xm:sqref>AE2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AF2:AF2</xm:f>
+              <xm:sqref>AF2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AG2:AG2</xm:f>
+              <xm:sqref>AG2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AH2:AH2</xm:f>
+              <xm:sqref>AH2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AI2:AI2</xm:f>
+              <xm:sqref>AI2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AJ2:AJ2</xm:f>
+              <xm:sqref>AJ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AK2:AK2</xm:f>
+              <xm:sqref>AK2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AL2:AL2</xm:f>
+              <xm:sqref>AL2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AM2:AM2</xm:f>
+              <xm:sqref>AM2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AN2:AN2</xm:f>
+              <xm:sqref>AN2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AO2:AO2</xm:f>
+              <xm:sqref>AO2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AP2:AP2</xm:f>
+              <xm:sqref>AP2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AQ2:AQ2</xm:f>
+              <xm:sqref>AQ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AR2:AR2</xm:f>
+              <xm:sqref>AR2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AS2:AS2</xm:f>
+              <xm:sqref>AS2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AT2:AT2</xm:f>
+              <xm:sqref>AT2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AU2:AU2</xm:f>
+              <xm:sqref>AU2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AV2:AV2</xm:f>
+              <xm:sqref>AV2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AW2:AW2</xm:f>
+              <xm:sqref>AW2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AX2:AX2</xm:f>
+              <xm:sqref>AX2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AY2:AY2</xm:f>
+              <xm:sqref>AY2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AZ2:AZ2</xm:f>
+              <xm:sqref>AZ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BA2:BA2</xm:f>
+              <xm:sqref>BA2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BB2:BB2</xm:f>
+              <xm:sqref>BB2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BC2:BC2</xm:f>
+              <xm:sqref>BC2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BD2:BD2</xm:f>
+              <xm:sqref>BD2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BE2:BE2</xm:f>
+              <xm:sqref>BE2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BF2:BF2</xm:f>
+              <xm:sqref>BF2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BG2:BG2</xm:f>
+              <xm:sqref>BG2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BH2:BH2</xm:f>
+              <xm:sqref>BH2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BI2:BI2</xm:f>
+              <xm:sqref>BI2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BJ2:BJ2</xm:f>
+              <xm:sqref>BJ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BK2:BK2</xm:f>
+              <xm:sqref>BK2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BL2:BL2</xm:f>
+              <xm:sqref>BL2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BM2:BM2</xm:f>
+              <xm:sqref>BM2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BN2:BN2</xm:f>
+              <xm:sqref>BN2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BO2:BO2</xm:f>
+              <xm:sqref>BO2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BP2:BP2</xm:f>
+              <xm:sqref>BP2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BQ2:BQ2</xm:f>
+              <xm:sqref>BQ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BR2:BR2</xm:f>
+              <xm:sqref>BR2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BS2:BS2</xm:f>
+              <xm:sqref>BS2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BT2:BT2</xm:f>
+              <xm:sqref>BT2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BU2:BU2</xm:f>
+              <xm:sqref>BU2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BV2:BV2</xm:f>
+              <xm:sqref>BV2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BW2:BW2</xm:f>
+              <xm:sqref>BW2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BX2:BX2</xm:f>
+              <xm:sqref>BX2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BY2:BY2</xm:f>
+              <xm:sqref>BY2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BZ2:BZ2</xm:f>
+              <xm:sqref>BZ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CA2:CA2</xm:f>
+              <xm:sqref>CA2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CB2:CB2</xm:f>
+              <xm:sqref>CB2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CC2:CC2</xm:f>
+              <xm:sqref>CC2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CD2:CD2</xm:f>
+              <xm:sqref>CD2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CE2:CE2</xm:f>
+              <xm:sqref>CE2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CF2:CF2</xm:f>
+              <xm:sqref>CF2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CG2:CG2</xm:f>
+              <xm:sqref>CG2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CH2:CH2</xm:f>
+              <xm:sqref>CH2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CI2:CI2</xm:f>
+              <xm:sqref>CI2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CJ2:CJ2</xm:f>
+              <xm:sqref>CJ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CK2:CK2</xm:f>
+              <xm:sqref>CK2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CL2:CL2</xm:f>
+              <xm:sqref>CL2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CM2:CM2</xm:f>
+              <xm:sqref>CM2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CN2:CN2</xm:f>
+              <xm:sqref>CN2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CO2:CO2</xm:f>
+              <xm:sqref>CO2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CP2:CP2</xm:f>
+              <xm:sqref>CP2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CQ2:CQ2</xm:f>
+              <xm:sqref>CQ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CR2:CR2</xm:f>
+              <xm:sqref>CR2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CS2:CS2</xm:f>
+              <xm:sqref>CS2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CT2:CT2</xm:f>
+              <xm:sqref>CT2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CU2:CU2</xm:f>
+              <xm:sqref>CU2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CV2:CV2</xm:f>
+              <xm:sqref>CV2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CW2:CW2</xm:f>
+              <xm:sqref>CW2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CX2:CX2</xm:f>
+              <xm:sqref>CX2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CY2:CY2</xm:f>
+              <xm:sqref>CY2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CZ2:CZ2</xm:f>
+              <xm:sqref>CZ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DA2:DA2</xm:f>
+              <xm:sqref>DA2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DB2:DB2</xm:f>
+              <xm:sqref>DB2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DC2:DC2</xm:f>
+              <xm:sqref>DC2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DD2:DD2</xm:f>
+              <xm:sqref>DD2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DE2:DE2</xm:f>
+              <xm:sqref>DE2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DF2:DF2</xm:f>
+              <xm:sqref>DF2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DG2:DG2</xm:f>
+              <xm:sqref>DG2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DH2:DH2</xm:f>
+              <xm:sqref>DH2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DI2:DI2</xm:f>
+              <xm:sqref>DI2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DJ2:DJ2</xm:f>
+              <xm:sqref>DJ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DK2:DK2</xm:f>
+              <xm:sqref>DK2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DL2:DL2</xm:f>
+              <xm:sqref>DL2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DM2:DM2</xm:f>
+              <xm:sqref>DM2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DN2:DN2</xm:f>
+              <xm:sqref>DN2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DO2:DO2</xm:f>
+              <xm:sqref>DO2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DP2:DP2</xm:f>
+              <xm:sqref>DP2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DQ2:DQ2</xm:f>
+              <xm:sqref>DQ2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DR2:DR2</xm:f>
+              <xm:sqref>DR2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DS2:DS2</xm:f>
+              <xm:sqref>DS2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DT2:DT2</xm:f>
+              <xm:sqref>DT2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DU2:DU2</xm:f>
+              <xm:sqref>DU2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DV2:DV2</xm:f>
+              <xm:sqref>DV2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DW2:DW2</xm:f>
+              <xm:sqref>DW2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DX2:DX2</xm:f>
+              <xm:sqref>DX2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D60B60FF-8DDE-4943-85F0-636704988011}">
           <x14:colorSeries rgb="FF000000"/>
           <x14:colorNegative rgb="FF0070C0"/>
@@ -5446,530 +7680,6 @@
             <x14:sparkline>
               <xm:f>Sheet1!DX1:DX1</xm:f>
               <xm:sqref>DX1</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D7EB8D97-A2B5-4769-924B-0EEB8B33B7EA}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!A2:A2</xm:f>
-              <xm:sqref>A2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B2:B2</xm:f>
-              <xm:sqref>B2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C2:C2</xm:f>
-              <xm:sqref>C2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D2:D2</xm:f>
-              <xm:sqref>D2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!E2:E2</xm:f>
-              <xm:sqref>E2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!F2:F2</xm:f>
-              <xm:sqref>F2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!G2:G2</xm:f>
-              <xm:sqref>G2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!H2:H2</xm:f>
-              <xm:sqref>H2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!I2:I2</xm:f>
-              <xm:sqref>I2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!J2:J2</xm:f>
-              <xm:sqref>J2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!K2:K2</xm:f>
-              <xm:sqref>K2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!L2:L2</xm:f>
-              <xm:sqref>L2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!M2:M2</xm:f>
-              <xm:sqref>M2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!N2:N2</xm:f>
-              <xm:sqref>N2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!O2:O2</xm:f>
-              <xm:sqref>O2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!P2:P2</xm:f>
-              <xm:sqref>P2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!Q2:Q2</xm:f>
-              <xm:sqref>Q2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!R2:R2</xm:f>
-              <xm:sqref>R2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!S2:S2</xm:f>
-              <xm:sqref>S2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!T2:T2</xm:f>
-              <xm:sqref>T2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!U2:U2</xm:f>
-              <xm:sqref>U2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!V2:V2</xm:f>
-              <xm:sqref>V2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!W2:W2</xm:f>
-              <xm:sqref>W2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!X2:X2</xm:f>
-              <xm:sqref>X2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!Y2:Y2</xm:f>
-              <xm:sqref>Y2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!Z2:Z2</xm:f>
-              <xm:sqref>Z2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AA2:AA2</xm:f>
-              <xm:sqref>AA2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AB2:AB2</xm:f>
-              <xm:sqref>AB2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AC2:AC2</xm:f>
-              <xm:sqref>AC2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AD2:AD2</xm:f>
-              <xm:sqref>AD2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AE2:AE2</xm:f>
-              <xm:sqref>AE2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AF2:AF2</xm:f>
-              <xm:sqref>AF2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AG2:AG2</xm:f>
-              <xm:sqref>AG2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AH2:AH2</xm:f>
-              <xm:sqref>AH2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AI2:AI2</xm:f>
-              <xm:sqref>AI2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AJ2:AJ2</xm:f>
-              <xm:sqref>AJ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AK2:AK2</xm:f>
-              <xm:sqref>AK2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AL2:AL2</xm:f>
-              <xm:sqref>AL2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AM2:AM2</xm:f>
-              <xm:sqref>AM2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AN2:AN2</xm:f>
-              <xm:sqref>AN2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AO2:AO2</xm:f>
-              <xm:sqref>AO2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AP2:AP2</xm:f>
-              <xm:sqref>AP2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AQ2:AQ2</xm:f>
-              <xm:sqref>AQ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AR2:AR2</xm:f>
-              <xm:sqref>AR2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AS2:AS2</xm:f>
-              <xm:sqref>AS2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AT2:AT2</xm:f>
-              <xm:sqref>AT2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AU2:AU2</xm:f>
-              <xm:sqref>AU2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AV2:AV2</xm:f>
-              <xm:sqref>AV2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AW2:AW2</xm:f>
-              <xm:sqref>AW2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AX2:AX2</xm:f>
-              <xm:sqref>AX2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AY2:AY2</xm:f>
-              <xm:sqref>AY2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AZ2:AZ2</xm:f>
-              <xm:sqref>AZ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BA2:BA2</xm:f>
-              <xm:sqref>BA2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BB2:BB2</xm:f>
-              <xm:sqref>BB2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BC2:BC2</xm:f>
-              <xm:sqref>BC2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BD2:BD2</xm:f>
-              <xm:sqref>BD2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BE2:BE2</xm:f>
-              <xm:sqref>BE2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BF2:BF2</xm:f>
-              <xm:sqref>BF2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BG2:BG2</xm:f>
-              <xm:sqref>BG2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BH2:BH2</xm:f>
-              <xm:sqref>BH2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BI2:BI2</xm:f>
-              <xm:sqref>BI2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BJ2:BJ2</xm:f>
-              <xm:sqref>BJ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BK2:BK2</xm:f>
-              <xm:sqref>BK2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BL2:BL2</xm:f>
-              <xm:sqref>BL2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BM2:BM2</xm:f>
-              <xm:sqref>BM2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BN2:BN2</xm:f>
-              <xm:sqref>BN2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BO2:BO2</xm:f>
-              <xm:sqref>BO2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BP2:BP2</xm:f>
-              <xm:sqref>BP2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BQ2:BQ2</xm:f>
-              <xm:sqref>BQ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BR2:BR2</xm:f>
-              <xm:sqref>BR2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BS2:BS2</xm:f>
-              <xm:sqref>BS2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BT2:BT2</xm:f>
-              <xm:sqref>BT2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BU2:BU2</xm:f>
-              <xm:sqref>BU2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BV2:BV2</xm:f>
-              <xm:sqref>BV2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BW2:BW2</xm:f>
-              <xm:sqref>BW2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BX2:BX2</xm:f>
-              <xm:sqref>BX2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BY2:BY2</xm:f>
-              <xm:sqref>BY2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BZ2:BZ2</xm:f>
-              <xm:sqref>BZ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CA2:CA2</xm:f>
-              <xm:sqref>CA2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CB2:CB2</xm:f>
-              <xm:sqref>CB2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CC2:CC2</xm:f>
-              <xm:sqref>CC2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CD2:CD2</xm:f>
-              <xm:sqref>CD2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CE2:CE2</xm:f>
-              <xm:sqref>CE2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CF2:CF2</xm:f>
-              <xm:sqref>CF2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CG2:CG2</xm:f>
-              <xm:sqref>CG2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CH2:CH2</xm:f>
-              <xm:sqref>CH2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CI2:CI2</xm:f>
-              <xm:sqref>CI2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CJ2:CJ2</xm:f>
-              <xm:sqref>CJ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CK2:CK2</xm:f>
-              <xm:sqref>CK2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CL2:CL2</xm:f>
-              <xm:sqref>CL2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CM2:CM2</xm:f>
-              <xm:sqref>CM2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CN2:CN2</xm:f>
-              <xm:sqref>CN2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CO2:CO2</xm:f>
-              <xm:sqref>CO2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CP2:CP2</xm:f>
-              <xm:sqref>CP2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CQ2:CQ2</xm:f>
-              <xm:sqref>CQ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CR2:CR2</xm:f>
-              <xm:sqref>CR2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CS2:CS2</xm:f>
-              <xm:sqref>CS2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CT2:CT2</xm:f>
-              <xm:sqref>CT2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CU2:CU2</xm:f>
-              <xm:sqref>CU2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CV2:CV2</xm:f>
-              <xm:sqref>CV2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CW2:CW2</xm:f>
-              <xm:sqref>CW2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CX2:CX2</xm:f>
-              <xm:sqref>CX2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CY2:CY2</xm:f>
-              <xm:sqref>CY2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CZ2:CZ2</xm:f>
-              <xm:sqref>CZ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DA2:DA2</xm:f>
-              <xm:sqref>DA2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DB2:DB2</xm:f>
-              <xm:sqref>DB2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DC2:DC2</xm:f>
-              <xm:sqref>DC2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DD2:DD2</xm:f>
-              <xm:sqref>DD2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DE2:DE2</xm:f>
-              <xm:sqref>DE2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DF2:DF2</xm:f>
-              <xm:sqref>DF2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DG2:DG2</xm:f>
-              <xm:sqref>DG2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DH2:DH2</xm:f>
-              <xm:sqref>DH2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DI2:DI2</xm:f>
-              <xm:sqref>DI2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DJ2:DJ2</xm:f>
-              <xm:sqref>DJ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DK2:DK2</xm:f>
-              <xm:sqref>DK2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DL2:DL2</xm:f>
-              <xm:sqref>DL2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DM2:DM2</xm:f>
-              <xm:sqref>DM2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DN2:DN2</xm:f>
-              <xm:sqref>DN2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DO2:DO2</xm:f>
-              <xm:sqref>DO2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DP2:DP2</xm:f>
-              <xm:sqref>DP2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DQ2:DQ2</xm:f>
-              <xm:sqref>DQ2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DR2:DR2</xm:f>
-              <xm:sqref>DR2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DS2:DS2</xm:f>
-              <xm:sqref>DS2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DT2:DT2</xm:f>
-              <xm:sqref>DT2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DU2:DU2</xm:f>
-              <xm:sqref>DU2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DV2:DV2</xm:f>
-              <xm:sqref>DV2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DW2:DW2</xm:f>
-              <xm:sqref>DW2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DX2:DX2</xm:f>
-              <xm:sqref>DX2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5983,8 +7693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B8196E-8B4A-4EFC-A9C3-DA5A87D438EC}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6044,4 +7754,389 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DDF770-BCC0-45E8-8200-F47279122DC7}">
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-3.0625252955515837E-17</v>
+      </c>
+      <c r="B1">
+        <v>-7.4483062277798856E-2</v>
+      </c>
+      <c r="C1">
+        <v>-8.4991738293620014E-2</v>
+      </c>
+      <c r="D1">
+        <v>-0.21081871897687593</v>
+      </c>
+      <c r="E1">
+        <v>-6.2563853327583172E-2</v>
+      </c>
+      <c r="F1">
+        <v>2.4072481448000222</v>
+      </c>
+      <c r="G1">
+        <v>4.2721723186435554</v>
+      </c>
+      <c r="H1">
+        <v>6.1670429701092155</v>
+      </c>
+      <c r="I1">
+        <v>7.5830250461433462</v>
+      </c>
+      <c r="J1">
+        <v>8.7325033918517434</v>
+      </c>
+      <c r="K1">
+        <v>9.9569451204288999</v>
+      </c>
+      <c r="L1">
+        <v>10.990531774550144</v>
+      </c>
+      <c r="M1">
+        <v>12.249912393713119</v>
+      </c>
+      <c r="N1">
+        <v>13.126889912428409</v>
+      </c>
+      <c r="O1">
+        <v>12.26781597167936</v>
+      </c>
+      <c r="P1">
+        <v>11.822454891746442</v>
+      </c>
+      <c r="Q1">
+        <v>11.370905515140235</v>
+      </c>
+      <c r="R1">
+        <v>11.05367874979199</v>
+      </c>
+      <c r="S1">
+        <v>10.524606923578478</v>
+      </c>
+      <c r="T1">
+        <v>10.04852253363336</v>
+      </c>
+      <c r="U1">
+        <v>9.5953705137468894</v>
+      </c>
+      <c r="V1">
+        <v>9.074032224423572</v>
+      </c>
+      <c r="W1">
+        <v>8.6563509061373551</v>
+      </c>
+      <c r="X1">
+        <v>8.625778173695851</v>
+      </c>
+      <c r="Y1">
+        <v>8.33346312699015</v>
+      </c>
+      <c r="Z1">
+        <v>7.9320618623923398</v>
+      </c>
+      <c r="AA1">
+        <v>7.8034043444365127</v>
+      </c>
+      <c r="AB1">
+        <v>7.3949249789961646</v>
+      </c>
+      <c r="AC1">
+        <v>7.1741154035602959</v>
+      </c>
+      <c r="AD1">
+        <v>6.8693543600575833</v>
+      </c>
+      <c r="AE1">
+        <v>7.0442965590276634</v>
+      </c>
+      <c r="AF1">
+        <v>6.5861974190826302</v>
+      </c>
+      <c r="AG1">
+        <v>6.3499920592574624</v>
+      </c>
+      <c r="AH1">
+        <v>6.2302545280139228</v>
+      </c>
+      <c r="AI1">
+        <v>6.2516111397898424</v>
+      </c>
+      <c r="AJ1">
+        <v>6.090348662306913</v>
+      </c>
+      <c r="AK1">
+        <v>5.8663042990384202</v>
+      </c>
+      <c r="AL1">
+        <v>5.5902870080604634</v>
+      </c>
+      <c r="AM1">
+        <v>5.4738125721726174</v>
+      </c>
+      <c r="AN1">
+        <v>5.4770537384068465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-9.7528404788864825E-17</v>
+      </c>
+      <c r="B2">
+        <v>-8.9847512495894899E-2</v>
+      </c>
+      <c r="C2">
+        <v>2.8963934532094747E-2</v>
+      </c>
+      <c r="D2">
+        <v>-9.8624812873268186E-2</v>
+      </c>
+      <c r="E2">
+        <v>-6.8460116632027529E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.2071013234007308</v>
+      </c>
+      <c r="G2">
+        <v>3.6172497470165403</v>
+      </c>
+      <c r="H2">
+        <v>4.8547885461936868</v>
+      </c>
+      <c r="I2">
+        <v>5.8394906076783872</v>
+      </c>
+      <c r="J2">
+        <v>7.1519399749232759</v>
+      </c>
+      <c r="K2">
+        <v>8.1173134342140116</v>
+      </c>
+      <c r="L2">
+        <v>8.9718809825498074</v>
+      </c>
+      <c r="M2">
+        <v>9.548818794394796</v>
+      </c>
+      <c r="N2">
+        <v>10.591760813213927</v>
+      </c>
+      <c r="O2">
+        <v>10.188674949493763</v>
+      </c>
+      <c r="P2">
+        <v>9.5876828489254748</v>
+      </c>
+      <c r="Q2">
+        <v>9.0511188483178397</v>
+      </c>
+      <c r="R2">
+        <v>8.9363981951206757</v>
+      </c>
+      <c r="S2">
+        <v>8.2810136742671858</v>
+      </c>
+      <c r="T2">
+        <v>8.0166966927804264</v>
+      </c>
+      <c r="U2">
+        <v>7.7509961877100766</v>
+      </c>
+      <c r="V2">
+        <v>7.424107459562209</v>
+      </c>
+      <c r="W2">
+        <v>7.0694383485525245</v>
+      </c>
+      <c r="X2">
+        <v>6.5188184044217401</v>
+      </c>
+      <c r="Y2">
+        <v>6.4834025771411632</v>
+      </c>
+      <c r="Z2">
+        <v>6.1912570431189824</v>
+      </c>
+      <c r="AA2">
+        <v>6.3022452922549483</v>
+      </c>
+      <c r="AB2">
+        <v>5.914685277605142</v>
+      </c>
+      <c r="AC2">
+        <v>5.5397824870039667</v>
+      </c>
+      <c r="AD2">
+        <v>5.3608575758582484</v>
+      </c>
+      <c r="AE2">
+        <v>5.3477878164607766</v>
+      </c>
+      <c r="AF2">
+        <v>5.3254735961552946</v>
+      </c>
+      <c r="AG2">
+        <v>5.0236973583397635</v>
+      </c>
+      <c r="AH2">
+        <v>4.8993816012644364</v>
+      </c>
+      <c r="AI2">
+        <v>4.7982372700181664</v>
+      </c>
+      <c r="AJ2">
+        <v>4.5661563580101383</v>
+      </c>
+      <c r="AK2">
+        <v>4.337636495763439</v>
+      </c>
+      <c r="AL2">
+        <v>4.4339710883676204</v>
+      </c>
+      <c r="AM2">
+        <v>4.1469288455342337</v>
+      </c>
+      <c r="AN2">
+        <v>4.1788685053140817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <v>28</v>
+      </c>
+      <c r="P3">
+        <v>30</v>
+      </c>
+      <c r="Q3">
+        <v>32</v>
+      </c>
+      <c r="R3">
+        <v>34</v>
+      </c>
+      <c r="S3">
+        <v>36</v>
+      </c>
+      <c r="T3">
+        <v>38</v>
+      </c>
+      <c r="U3">
+        <v>40</v>
+      </c>
+      <c r="V3">
+        <v>42</v>
+      </c>
+      <c r="W3">
+        <v>44</v>
+      </c>
+      <c r="X3">
+        <v>46</v>
+      </c>
+      <c r="Y3">
+        <v>48</v>
+      </c>
+      <c r="Z3">
+        <v>50</v>
+      </c>
+      <c r="AA3">
+        <v>52</v>
+      </c>
+      <c r="AB3">
+        <v>54</v>
+      </c>
+      <c r="AC3">
+        <v>56</v>
+      </c>
+      <c r="AD3">
+        <v>58</v>
+      </c>
+      <c r="AE3">
+        <v>60</v>
+      </c>
+      <c r="AF3">
+        <v>62</v>
+      </c>
+      <c r="AG3">
+        <v>64</v>
+      </c>
+      <c r="AH3">
+        <v>66</v>
+      </c>
+      <c r="AI3">
+        <v>68</v>
+      </c>
+      <c r="AJ3">
+        <v>70</v>
+      </c>
+      <c r="AK3">
+        <v>72</v>
+      </c>
+      <c r="AL3">
+        <v>74</v>
+      </c>
+      <c r="AM3">
+        <v>76</v>
+      </c>
+      <c r="AN3">
+        <v>78</v>
+      </c>
+      <c r="AO3">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/MR Thermometry/PRF Based/DataBase.xlsx
+++ b/MR Thermometry/PRF Based/DataBase.xlsx
@@ -1,24 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694039A-74D7-4DAA-AD37-E0E3CE812A43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB3E08B-73D9-48F3-B51F-98E6A78A22A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1440" yWindow="240" windowWidth="29070" windowHeight="16350" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>SDev</t>
+  </si>
+  <si>
+    <t>L LOA</t>
+  </si>
+  <si>
+    <t>U LOA</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3203,6 +3221,2912 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Temperature</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Evoluation at Hottest Location</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BadShim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$4:$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$A$1:$AN$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-3.0625252955515837E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.4483062277798856E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.4991738293620014E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.21081871897687593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.2563853327583172E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4072481448000222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2721723186435554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1670429701092155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5830250461433462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7325033918517434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9569451204288999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.990531774550144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.249912393713119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.126889912428409</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.26781597167936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.822454891746442</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.370905515140235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.05367874979199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.524606923578478</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.04852253363336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5953705137468894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.074032224423572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.6563509061373551</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.625778173695851</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.33346312699015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9320618623923398</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8034043444365127</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3949249789961646</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1741154035602959</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8693543600575833</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0442965590276634</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.5861974190826302</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3499920592574624</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2302545280139228</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.2516111397898424</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.090348662306913</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.8663042990384202</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.5902870080604634</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4738125721726174</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4770537384068465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3689-4C34-A6C6-A9502FC266C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GoodShim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$4:$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$A$3:$AN$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-9.7528404788864825E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.9847512495894899E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8963934532094747E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.8624812873268186E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.8460116632027529E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2071013234007308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6172497470165403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8547885461936868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8394906076783872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1519399749232759</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1173134342140116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9718809825498074</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.548818794394796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.591760813213927</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.188674949493763</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5876828489254748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0511188483178397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9363981951206757</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2810136742671858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0166966927804264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7509961877100766</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.424107459562209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0694383485525245</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5188184044217401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4834025771411632</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1912570431189824</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3022452922549483</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.914685277605142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5397824870039667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3608575758582484</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3477878164607766</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3254735961552946</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0236973583397635</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8993816012644364</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7982372700181664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5661563580101383</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.337636495763439</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4339710883676204</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1469288455342337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1788685053140817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3689-4C34-A6C6-A9502FC266C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Corrected</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$4:$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$AN$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-2.3929295196653938E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.8026629998621272E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.6441727198777945E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16450281566698549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.8778646543122986E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.882861077000813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3450330417440344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8303433305298844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9412878596976837</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8403857898503695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7968840921549178</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6057677590805124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5933075513319306</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.281011260000099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.608729826718502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2591182707954154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8991162631646361</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6509477304548827</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2328186310623686</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.857330837202575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4971454085114857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0894629808016152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.760947610972968</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7356929856790488</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5038953511848048</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1908614592784863</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0909483938970972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7736513186135179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.599815899474299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3614548348391091</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4962715631294392</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.1384224444838011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9518841874632527</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8585380288439657</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8763151158737195</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7499868614464074</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5760214363157559</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.360425596883684</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.2688203753402254</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2724073977721053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3689-4C34-A6C6-A9502FC266C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="595833568"/>
+        <c:axId val="595833896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="595833568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595833896"/>
+        <c:crossesAt val="-1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="595833896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Temperature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>℃</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595833568"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72066666666666668"/>
+          <c:y val="0.15380686789151357"/>
+          <c:w val="0.2348888888888889"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8770559930008747E-2"/>
+                  <c:y val="-5.4024496937882761E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$3:$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>-9.7528404788864825E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.9847512495894899E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8963934532094747E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.8624812873268186E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.8460116632027529E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2071013234007308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6172497470165403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8547885461936868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8394906076783872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1519399749232759</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1173134342140116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9718809825498074</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.548818794394796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.591760813213927</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.188674949493763</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5876828489254748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0511188483178397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9363981951206757</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2810136742671858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0166966927804264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7509961877100766</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.424107459562209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0694383485525245</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5188184044217401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4834025771411632</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1912570431189824</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3022452922549483</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.914685277605142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5397824870039667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3608575758582484</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3477878164607766</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3254735961552946</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0236973583397635</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8993816012644364</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7982372700181664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5661563580101383</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.337636495763439</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4339710883676204</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1469288455342337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1788685053140817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$2:$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>-2.3929295196653938E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.8026629998621272E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.6441727198777945E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16450281566698549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.8778646543122986E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.882861077000813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3450330417440344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8303433305298844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9412878596976837</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8403857898503695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7968840921549178</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6057677590805124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5933075513319306</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.281011260000099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.608729826718502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2591182707954154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8991162631646361</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6509477304548827</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2328186310623686</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.857330837202575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4971454085114857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0894629808016152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.760947610972968</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7356929856790488</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5038953511848048</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1908614592784863</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0909483938970972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7736513186135179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.599815899474299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3614548348391091</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4962715631294392</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.1384224444838011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9518841874632527</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8585380288439657</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8763151158737195</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7499868614464074</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5760214363157559</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.360425596883684</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.2688203753402254</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2724073977721053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB5D-48DB-95B3-9929318E8739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="558959576"/>
+        <c:axId val="558962856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="558959576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>GoodShim</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Temperature (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>℃</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558962856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="558962856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Corrected Temperature (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>℃</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558959576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bland - Altman</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$7:$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>-6.0728849992759379E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8738896333341599E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.13156381427012684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.8619381587575257E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0449812002007719</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4811413943802876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8425659383617852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.890389233688035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9961628823868232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9570987631844652</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7888243708151599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5710631728633633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.436386036607013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8987023881061322</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4234005598604451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9751175557412388</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.7936729627877792</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2569161526647772</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.9370137649915007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.6240707981107807</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2567852201819125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9151929797627467</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.627255695050394</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4936489641629844</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1910592511987339</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1965968430760228</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8441682981093299</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5697991932391329</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3611562053486788</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4220296897951084</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2319480203195479</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9877907729015085</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8789598150542011</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8372761929459429</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6580716097282728</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4568289660395974</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3971983426256518</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.20787461043723</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.225637951543094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$6:$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>7.3599109592210893E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1820882497273627E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.5405661730872698E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.5878002793717305E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9681470088904543E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.32424024639991789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.27221670527250597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.4445215663802422E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10179725201929646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.31155418507290644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.32042934205909379</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.36611322346929498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.448875693713461E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.31074955321382802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.57994512277526056</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.32856457813005946</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.15200258515320364</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.28545046466579294</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.8195043204817267E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.15936585557785143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.25385077919859089</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.33464447876059378</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.30849073757955647</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21687458125730874</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0492774043641582E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.955838404960943E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.21129689835785115</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.14103395899162408</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0033412470332337E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9725898086071538E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1484837466686626</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.18705115167149344</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.1813170876510846E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.0843572420470764E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8077845855553107E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18383050343626905</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23838494055231685</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.3545491483936409E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.12189152980599172</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.3538892458023604E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8955-4117-8412-B8FE125528AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bias</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$W$12:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$X$12:$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-9.7689999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.7689999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8955-4117-8412-B8FE125528AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Up LOA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8955-4117-8412-B8FE125528AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$W$16:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$X$16:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.27487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8955-4117-8412-B8FE125528AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Low LOA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$W$14:$W$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$X$14:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.47025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.47025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8955-4117-8412-B8FE125528AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="683053392"/>
+        <c:axId val="683052736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="683053392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>℃</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683052736"/>
+        <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="683052736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Difference</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>℃</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683053392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3363,6 +6287,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5408,6 +8452,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5578,6 +10170,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1588</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>188911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>74611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE82A6B-DADA-4E54-8D53-B2C7CF17C0DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>164305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>39687</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50005</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F09C5A2-54B0-48AB-8215-43F295582D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>608541</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB56C5E5-A698-43DC-AB80-4BAA8A4972C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6635,6 +11340,530 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D60B60FF-8DDE-4943-85F0-636704988011}">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!A1:A1</xm:f>
+              <xm:sqref>A1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B1:B1</xm:f>
+              <xm:sqref>B1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C1:C1</xm:f>
+              <xm:sqref>C1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D1:D1</xm:f>
+              <xm:sqref>D1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!E1:E1</xm:f>
+              <xm:sqref>E1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!F1:F1</xm:f>
+              <xm:sqref>F1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!G1:G1</xm:f>
+              <xm:sqref>G1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!H1:H1</xm:f>
+              <xm:sqref>H1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!I1:I1</xm:f>
+              <xm:sqref>I1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!J1:J1</xm:f>
+              <xm:sqref>J1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!K1:K1</xm:f>
+              <xm:sqref>K1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!L1:L1</xm:f>
+              <xm:sqref>L1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M1:M1</xm:f>
+              <xm:sqref>M1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!N1:N1</xm:f>
+              <xm:sqref>N1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!O1:O1</xm:f>
+              <xm:sqref>O1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!P1:P1</xm:f>
+              <xm:sqref>P1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Q1:Q1</xm:f>
+              <xm:sqref>Q1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!R1:R1</xm:f>
+              <xm:sqref>R1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!S1:S1</xm:f>
+              <xm:sqref>S1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!T1:T1</xm:f>
+              <xm:sqref>T1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!U1:U1</xm:f>
+              <xm:sqref>U1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!V1:V1</xm:f>
+              <xm:sqref>V1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!W1:W1</xm:f>
+              <xm:sqref>W1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!X1:X1</xm:f>
+              <xm:sqref>X1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Y1:Y1</xm:f>
+              <xm:sqref>Y1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!Z1:Z1</xm:f>
+              <xm:sqref>Z1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AA1:AA1</xm:f>
+              <xm:sqref>AA1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AB1:AB1</xm:f>
+              <xm:sqref>AB1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AC1:AC1</xm:f>
+              <xm:sqref>AC1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AD1:AD1</xm:f>
+              <xm:sqref>AD1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AE1:AE1</xm:f>
+              <xm:sqref>AE1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AF1:AF1</xm:f>
+              <xm:sqref>AF1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AG1:AG1</xm:f>
+              <xm:sqref>AG1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AH1:AH1</xm:f>
+              <xm:sqref>AH1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AI1:AI1</xm:f>
+              <xm:sqref>AI1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AJ1:AJ1</xm:f>
+              <xm:sqref>AJ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AK1:AK1</xm:f>
+              <xm:sqref>AK1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AL1:AL1</xm:f>
+              <xm:sqref>AL1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AM1:AM1</xm:f>
+              <xm:sqref>AM1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AN1:AN1</xm:f>
+              <xm:sqref>AN1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AO1:AO1</xm:f>
+              <xm:sqref>AO1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AP1:AP1</xm:f>
+              <xm:sqref>AP1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AQ1:AQ1</xm:f>
+              <xm:sqref>AQ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AR1:AR1</xm:f>
+              <xm:sqref>AR1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AS1:AS1</xm:f>
+              <xm:sqref>AS1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AT1:AT1</xm:f>
+              <xm:sqref>AT1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AU1:AU1</xm:f>
+              <xm:sqref>AU1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AV1:AV1</xm:f>
+              <xm:sqref>AV1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AW1:AW1</xm:f>
+              <xm:sqref>AW1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AX1:AX1</xm:f>
+              <xm:sqref>AX1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AY1:AY1</xm:f>
+              <xm:sqref>AY1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!AZ1:AZ1</xm:f>
+              <xm:sqref>AZ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BA1:BA1</xm:f>
+              <xm:sqref>BA1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BB1:BB1</xm:f>
+              <xm:sqref>BB1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BC1:BC1</xm:f>
+              <xm:sqref>BC1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BD1:BD1</xm:f>
+              <xm:sqref>BD1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BE1:BE1</xm:f>
+              <xm:sqref>BE1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BF1:BF1</xm:f>
+              <xm:sqref>BF1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BG1:BG1</xm:f>
+              <xm:sqref>BG1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BH1:BH1</xm:f>
+              <xm:sqref>BH1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BI1:BI1</xm:f>
+              <xm:sqref>BI1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BJ1:BJ1</xm:f>
+              <xm:sqref>BJ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BK1:BK1</xm:f>
+              <xm:sqref>BK1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BL1:BL1</xm:f>
+              <xm:sqref>BL1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BM1:BM1</xm:f>
+              <xm:sqref>BM1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BN1:BN1</xm:f>
+              <xm:sqref>BN1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BO1:BO1</xm:f>
+              <xm:sqref>BO1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BP1:BP1</xm:f>
+              <xm:sqref>BP1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BQ1:BQ1</xm:f>
+              <xm:sqref>BQ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BR1:BR1</xm:f>
+              <xm:sqref>BR1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BS1:BS1</xm:f>
+              <xm:sqref>BS1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BT1:BT1</xm:f>
+              <xm:sqref>BT1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BU1:BU1</xm:f>
+              <xm:sqref>BU1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BV1:BV1</xm:f>
+              <xm:sqref>BV1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BW1:BW1</xm:f>
+              <xm:sqref>BW1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BX1:BX1</xm:f>
+              <xm:sqref>BX1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BY1:BY1</xm:f>
+              <xm:sqref>BY1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!BZ1:BZ1</xm:f>
+              <xm:sqref>BZ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CA1:CA1</xm:f>
+              <xm:sqref>CA1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CB1:CB1</xm:f>
+              <xm:sqref>CB1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CC1:CC1</xm:f>
+              <xm:sqref>CC1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CD1:CD1</xm:f>
+              <xm:sqref>CD1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CE1:CE1</xm:f>
+              <xm:sqref>CE1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CF1:CF1</xm:f>
+              <xm:sqref>CF1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CG1:CG1</xm:f>
+              <xm:sqref>CG1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CH1:CH1</xm:f>
+              <xm:sqref>CH1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CI1:CI1</xm:f>
+              <xm:sqref>CI1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CJ1:CJ1</xm:f>
+              <xm:sqref>CJ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CK1:CK1</xm:f>
+              <xm:sqref>CK1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CL1:CL1</xm:f>
+              <xm:sqref>CL1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CM1:CM1</xm:f>
+              <xm:sqref>CM1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CN1:CN1</xm:f>
+              <xm:sqref>CN1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CO1:CO1</xm:f>
+              <xm:sqref>CO1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CP1:CP1</xm:f>
+              <xm:sqref>CP1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CQ1:CQ1</xm:f>
+              <xm:sqref>CQ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CR1:CR1</xm:f>
+              <xm:sqref>CR1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CS1:CS1</xm:f>
+              <xm:sqref>CS1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CT1:CT1</xm:f>
+              <xm:sqref>CT1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CU1:CU1</xm:f>
+              <xm:sqref>CU1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CV1:CV1</xm:f>
+              <xm:sqref>CV1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CW1:CW1</xm:f>
+              <xm:sqref>CW1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CX1:CX1</xm:f>
+              <xm:sqref>CX1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CY1:CY1</xm:f>
+              <xm:sqref>CY1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!CZ1:CZ1</xm:f>
+              <xm:sqref>CZ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DA1:DA1</xm:f>
+              <xm:sqref>DA1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DB1:DB1</xm:f>
+              <xm:sqref>DB1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DC1:DC1</xm:f>
+              <xm:sqref>DC1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DD1:DD1</xm:f>
+              <xm:sqref>DD1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DE1:DE1</xm:f>
+              <xm:sqref>DE1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DF1:DF1</xm:f>
+              <xm:sqref>DF1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DG1:DG1</xm:f>
+              <xm:sqref>DG1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DH1:DH1</xm:f>
+              <xm:sqref>DH1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DI1:DI1</xm:f>
+              <xm:sqref>DI1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DJ1:DJ1</xm:f>
+              <xm:sqref>DJ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DK1:DK1</xm:f>
+              <xm:sqref>DK1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DL1:DL1</xm:f>
+              <xm:sqref>DL1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DM1:DM1</xm:f>
+              <xm:sqref>DM1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DN1:DN1</xm:f>
+              <xm:sqref>DN1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DO1:DO1</xm:f>
+              <xm:sqref>DO1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DP1:DP1</xm:f>
+              <xm:sqref>DP1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DQ1:DQ1</xm:f>
+              <xm:sqref>DQ1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DR1:DR1</xm:f>
+              <xm:sqref>DR1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DS1:DS1</xm:f>
+              <xm:sqref>DS1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DT1:DT1</xm:f>
+              <xm:sqref>DT1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DU1:DU1</xm:f>
+              <xm:sqref>DU1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DV1:DV1</xm:f>
+              <xm:sqref>DV1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DW1:DW1</xm:f>
+              <xm:sqref>DW1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!DX1:DX1</xm:f>
+              <xm:sqref>DX1</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D7EB8D97-A2B5-4769-924B-0EEB8B33B7EA}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -7156,530 +12385,6 @@
             <x14:sparkline>
               <xm:f>Sheet1!DX2:DX2</xm:f>
               <xm:sqref>DX2</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D60B60FF-8DDE-4943-85F0-636704988011}">
-          <x14:colorSeries rgb="FF000000"/>
-          <x14:colorNegative rgb="FF0070C0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FF0070C0"/>
-          <x14:colorLast rgb="FF0070C0"/>
-          <x14:colorHigh rgb="FF0070C0"/>
-          <x14:colorLow rgb="FF0070C0"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!A1:A1</xm:f>
-              <xm:sqref>A1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!B1:B1</xm:f>
-              <xm:sqref>B1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C1:C1</xm:f>
-              <xm:sqref>C1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D1:D1</xm:f>
-              <xm:sqref>D1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!E1:E1</xm:f>
-              <xm:sqref>E1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!F1:F1</xm:f>
-              <xm:sqref>F1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!G1:G1</xm:f>
-              <xm:sqref>G1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!H1:H1</xm:f>
-              <xm:sqref>H1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!I1:I1</xm:f>
-              <xm:sqref>I1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!J1:J1</xm:f>
-              <xm:sqref>J1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!K1:K1</xm:f>
-              <xm:sqref>K1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!L1:L1</xm:f>
-              <xm:sqref>L1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!M1:M1</xm:f>
-              <xm:sqref>M1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!N1:N1</xm:f>
-              <xm:sqref>N1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!O1:O1</xm:f>
-              <xm:sqref>O1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!P1:P1</xm:f>
-              <xm:sqref>P1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!Q1:Q1</xm:f>
-              <xm:sqref>Q1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!R1:R1</xm:f>
-              <xm:sqref>R1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!S1:S1</xm:f>
-              <xm:sqref>S1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!T1:T1</xm:f>
-              <xm:sqref>T1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!U1:U1</xm:f>
-              <xm:sqref>U1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!V1:V1</xm:f>
-              <xm:sqref>V1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!W1:W1</xm:f>
-              <xm:sqref>W1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!X1:X1</xm:f>
-              <xm:sqref>X1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!Y1:Y1</xm:f>
-              <xm:sqref>Y1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!Z1:Z1</xm:f>
-              <xm:sqref>Z1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AA1:AA1</xm:f>
-              <xm:sqref>AA1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AB1:AB1</xm:f>
-              <xm:sqref>AB1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AC1:AC1</xm:f>
-              <xm:sqref>AC1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AD1:AD1</xm:f>
-              <xm:sqref>AD1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AE1:AE1</xm:f>
-              <xm:sqref>AE1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AF1:AF1</xm:f>
-              <xm:sqref>AF1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AG1:AG1</xm:f>
-              <xm:sqref>AG1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AH1:AH1</xm:f>
-              <xm:sqref>AH1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AI1:AI1</xm:f>
-              <xm:sqref>AI1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AJ1:AJ1</xm:f>
-              <xm:sqref>AJ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AK1:AK1</xm:f>
-              <xm:sqref>AK1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AL1:AL1</xm:f>
-              <xm:sqref>AL1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AM1:AM1</xm:f>
-              <xm:sqref>AM1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AN1:AN1</xm:f>
-              <xm:sqref>AN1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AO1:AO1</xm:f>
-              <xm:sqref>AO1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AP1:AP1</xm:f>
-              <xm:sqref>AP1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AQ1:AQ1</xm:f>
-              <xm:sqref>AQ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AR1:AR1</xm:f>
-              <xm:sqref>AR1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AS1:AS1</xm:f>
-              <xm:sqref>AS1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AT1:AT1</xm:f>
-              <xm:sqref>AT1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AU1:AU1</xm:f>
-              <xm:sqref>AU1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AV1:AV1</xm:f>
-              <xm:sqref>AV1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AW1:AW1</xm:f>
-              <xm:sqref>AW1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AX1:AX1</xm:f>
-              <xm:sqref>AX1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AY1:AY1</xm:f>
-              <xm:sqref>AY1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!AZ1:AZ1</xm:f>
-              <xm:sqref>AZ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BA1:BA1</xm:f>
-              <xm:sqref>BA1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BB1:BB1</xm:f>
-              <xm:sqref>BB1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BC1:BC1</xm:f>
-              <xm:sqref>BC1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BD1:BD1</xm:f>
-              <xm:sqref>BD1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BE1:BE1</xm:f>
-              <xm:sqref>BE1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BF1:BF1</xm:f>
-              <xm:sqref>BF1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BG1:BG1</xm:f>
-              <xm:sqref>BG1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BH1:BH1</xm:f>
-              <xm:sqref>BH1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BI1:BI1</xm:f>
-              <xm:sqref>BI1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BJ1:BJ1</xm:f>
-              <xm:sqref>BJ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BK1:BK1</xm:f>
-              <xm:sqref>BK1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BL1:BL1</xm:f>
-              <xm:sqref>BL1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BM1:BM1</xm:f>
-              <xm:sqref>BM1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BN1:BN1</xm:f>
-              <xm:sqref>BN1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BO1:BO1</xm:f>
-              <xm:sqref>BO1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BP1:BP1</xm:f>
-              <xm:sqref>BP1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BQ1:BQ1</xm:f>
-              <xm:sqref>BQ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BR1:BR1</xm:f>
-              <xm:sqref>BR1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BS1:BS1</xm:f>
-              <xm:sqref>BS1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BT1:BT1</xm:f>
-              <xm:sqref>BT1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BU1:BU1</xm:f>
-              <xm:sqref>BU1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BV1:BV1</xm:f>
-              <xm:sqref>BV1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BW1:BW1</xm:f>
-              <xm:sqref>BW1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BX1:BX1</xm:f>
-              <xm:sqref>BX1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BY1:BY1</xm:f>
-              <xm:sqref>BY1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!BZ1:BZ1</xm:f>
-              <xm:sqref>BZ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CA1:CA1</xm:f>
-              <xm:sqref>CA1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CB1:CB1</xm:f>
-              <xm:sqref>CB1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CC1:CC1</xm:f>
-              <xm:sqref>CC1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CD1:CD1</xm:f>
-              <xm:sqref>CD1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CE1:CE1</xm:f>
-              <xm:sqref>CE1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CF1:CF1</xm:f>
-              <xm:sqref>CF1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CG1:CG1</xm:f>
-              <xm:sqref>CG1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CH1:CH1</xm:f>
-              <xm:sqref>CH1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CI1:CI1</xm:f>
-              <xm:sqref>CI1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CJ1:CJ1</xm:f>
-              <xm:sqref>CJ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CK1:CK1</xm:f>
-              <xm:sqref>CK1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CL1:CL1</xm:f>
-              <xm:sqref>CL1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CM1:CM1</xm:f>
-              <xm:sqref>CM1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CN1:CN1</xm:f>
-              <xm:sqref>CN1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CO1:CO1</xm:f>
-              <xm:sqref>CO1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CP1:CP1</xm:f>
-              <xm:sqref>CP1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CQ1:CQ1</xm:f>
-              <xm:sqref>CQ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CR1:CR1</xm:f>
-              <xm:sqref>CR1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CS1:CS1</xm:f>
-              <xm:sqref>CS1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CT1:CT1</xm:f>
-              <xm:sqref>CT1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CU1:CU1</xm:f>
-              <xm:sqref>CU1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CV1:CV1</xm:f>
-              <xm:sqref>CV1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CW1:CW1</xm:f>
-              <xm:sqref>CW1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CX1:CX1</xm:f>
-              <xm:sqref>CX1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CY1:CY1</xm:f>
-              <xm:sqref>CY1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!CZ1:CZ1</xm:f>
-              <xm:sqref>CZ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DA1:DA1</xm:f>
-              <xm:sqref>DA1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DB1:DB1</xm:f>
-              <xm:sqref>DB1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DC1:DC1</xm:f>
-              <xm:sqref>DC1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DD1:DD1</xm:f>
-              <xm:sqref>DD1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DE1:DE1</xm:f>
-              <xm:sqref>DE1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DF1:DF1</xm:f>
-              <xm:sqref>DF1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DG1:DG1</xm:f>
-              <xm:sqref>DG1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DH1:DH1</xm:f>
-              <xm:sqref>DH1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DI1:DI1</xm:f>
-              <xm:sqref>DI1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DJ1:DJ1</xm:f>
-              <xm:sqref>DJ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DK1:DK1</xm:f>
-              <xm:sqref>DK1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DL1:DL1</xm:f>
-              <xm:sqref>DL1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DM1:DM1</xm:f>
-              <xm:sqref>DM1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DN1:DN1</xm:f>
-              <xm:sqref>DN1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DO1:DO1</xm:f>
-              <xm:sqref>DO1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DP1:DP1</xm:f>
-              <xm:sqref>DP1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DQ1:DQ1</xm:f>
-              <xm:sqref>DQ1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DR1:DR1</xm:f>
-              <xm:sqref>DR1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DS1:DS1</xm:f>
-              <xm:sqref>DS1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DT1:DT1</xm:f>
-              <xm:sqref>DT1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DU1:DU1</xm:f>
-              <xm:sqref>DU1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DV1:DV1</xm:f>
-              <xm:sqref>DV1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DW1:DW1</xm:f>
-              <xm:sqref>DW1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!DX1:DX1</xm:f>
-              <xm:sqref>DX1</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7760,7 +12465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DDF770-BCC0-45E8-8200-F47279122DC7}">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -8139,4 +12844,909 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D66792-BFED-429E-A8B9-EAC8740C51EC}">
+  <dimension ref="A1:AN17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-3.0625252955515837E-17</v>
+      </c>
+      <c r="B1">
+        <v>-7.4483062277798856E-2</v>
+      </c>
+      <c r="C1">
+        <v>-8.4991738293620014E-2</v>
+      </c>
+      <c r="D1">
+        <v>-0.21081871897687593</v>
+      </c>
+      <c r="E1">
+        <v>-6.2563853327583172E-2</v>
+      </c>
+      <c r="F1">
+        <v>2.4072481448000222</v>
+      </c>
+      <c r="G1">
+        <v>4.2721723186435554</v>
+      </c>
+      <c r="H1">
+        <v>6.1670429701092155</v>
+      </c>
+      <c r="I1">
+        <v>7.5830250461433462</v>
+      </c>
+      <c r="J1">
+        <v>8.7325033918517434</v>
+      </c>
+      <c r="K1">
+        <v>9.9569451204288999</v>
+      </c>
+      <c r="L1">
+        <v>10.990531774550144</v>
+      </c>
+      <c r="M1">
+        <v>12.249912393713119</v>
+      </c>
+      <c r="N1">
+        <v>13.126889912428409</v>
+      </c>
+      <c r="O1">
+        <v>12.26781597167936</v>
+      </c>
+      <c r="P1">
+        <v>11.822454891746442</v>
+      </c>
+      <c r="Q1">
+        <v>11.370905515140235</v>
+      </c>
+      <c r="R1">
+        <v>11.05367874979199</v>
+      </c>
+      <c r="S1">
+        <v>10.524606923578478</v>
+      </c>
+      <c r="T1">
+        <v>10.04852253363336</v>
+      </c>
+      <c r="U1">
+        <v>9.5953705137468894</v>
+      </c>
+      <c r="V1">
+        <v>9.074032224423572</v>
+      </c>
+      <c r="W1">
+        <v>8.6563509061373551</v>
+      </c>
+      <c r="X1">
+        <v>8.625778173695851</v>
+      </c>
+      <c r="Y1">
+        <v>8.33346312699015</v>
+      </c>
+      <c r="Z1">
+        <v>7.9320618623923398</v>
+      </c>
+      <c r="AA1">
+        <v>7.8034043444365127</v>
+      </c>
+      <c r="AB1">
+        <v>7.3949249789961646</v>
+      </c>
+      <c r="AC1">
+        <v>7.1741154035602959</v>
+      </c>
+      <c r="AD1">
+        <v>6.8693543600575833</v>
+      </c>
+      <c r="AE1">
+        <v>7.0442965590276634</v>
+      </c>
+      <c r="AF1">
+        <v>6.5861974190826302</v>
+      </c>
+      <c r="AG1">
+        <v>6.3499920592574624</v>
+      </c>
+      <c r="AH1">
+        <v>6.2302545280139228</v>
+      </c>
+      <c r="AI1">
+        <v>6.2516111397898424</v>
+      </c>
+      <c r="AJ1">
+        <v>6.090348662306913</v>
+      </c>
+      <c r="AK1">
+        <v>5.8663042990384202</v>
+      </c>
+      <c r="AL1">
+        <v>5.5902870080604634</v>
+      </c>
+      <c r="AM1">
+        <v>5.4738125721726174</v>
+      </c>
+      <c r="AN1">
+        <v>5.4770537384068465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-2.3929295196653938E-17</v>
+      </c>
+      <c r="B2">
+        <v>-5.8026629998621272E-2</v>
+      </c>
+      <c r="C2">
+        <v>-6.6441727198777945E-2</v>
+      </c>
+      <c r="D2">
+        <v>-0.16450281566698549</v>
+      </c>
+      <c r="E2">
+        <v>-4.8778646543122986E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.882861077000813</v>
+      </c>
+      <c r="G2">
+        <v>3.3450330417440344</v>
+      </c>
+      <c r="H2">
+        <v>4.8303433305298844</v>
+      </c>
+      <c r="I2">
+        <v>5.9412878596976837</v>
+      </c>
+      <c r="J2">
+        <v>6.8403857898503695</v>
+      </c>
+      <c r="K2">
+        <v>7.7968840921549178</v>
+      </c>
+      <c r="L2">
+        <v>8.6057677590805124</v>
+      </c>
+      <c r="M2">
+        <v>9.5933075513319306</v>
+      </c>
+      <c r="N2">
+        <v>10.281011260000099</v>
+      </c>
+      <c r="O2">
+        <v>9.608729826718502</v>
+      </c>
+      <c r="P2">
+        <v>9.2591182707954154</v>
+      </c>
+      <c r="Q2">
+        <v>8.8991162631646361</v>
+      </c>
+      <c r="R2">
+        <v>8.6509477304548827</v>
+      </c>
+      <c r="S2">
+        <v>8.2328186310623686</v>
+      </c>
+      <c r="T2">
+        <v>7.857330837202575</v>
+      </c>
+      <c r="U2">
+        <v>7.4971454085114857</v>
+      </c>
+      <c r="V2">
+        <v>7.0894629808016152</v>
+      </c>
+      <c r="W2">
+        <v>6.760947610972968</v>
+      </c>
+      <c r="X2">
+        <v>6.7356929856790488</v>
+      </c>
+      <c r="Y2">
+        <v>6.5038953511848048</v>
+      </c>
+      <c r="Z2">
+        <v>6.1908614592784863</v>
+      </c>
+      <c r="AA2">
+        <v>6.0909483938970972</v>
+      </c>
+      <c r="AB2">
+        <v>5.7736513186135179</v>
+      </c>
+      <c r="AC2">
+        <v>5.599815899474299</v>
+      </c>
+      <c r="AD2">
+        <v>5.3614548348391091</v>
+      </c>
+      <c r="AE2">
+        <v>5.4962715631294392</v>
+      </c>
+      <c r="AF2">
+        <v>5.1384224444838011</v>
+      </c>
+      <c r="AG2">
+        <v>4.9518841874632527</v>
+      </c>
+      <c r="AH2">
+        <v>4.8585380288439657</v>
+      </c>
+      <c r="AI2">
+        <v>4.8763151158737195</v>
+      </c>
+      <c r="AJ2">
+        <v>4.7499868614464074</v>
+      </c>
+      <c r="AK2">
+        <v>4.5760214363157559</v>
+      </c>
+      <c r="AL2">
+        <v>4.360425596883684</v>
+      </c>
+      <c r="AM2">
+        <v>4.2688203753402254</v>
+      </c>
+      <c r="AN2">
+        <v>4.2724073977721053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-9.7528404788864825E-17</v>
+      </c>
+      <c r="B3">
+        <v>-8.9847512495894899E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.8963934532094747E-2</v>
+      </c>
+      <c r="D3">
+        <v>-9.8624812873268186E-2</v>
+      </c>
+      <c r="E3">
+        <v>-6.8460116632027529E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.2071013234007308</v>
+      </c>
+      <c r="G3">
+        <v>3.6172497470165403</v>
+      </c>
+      <c r="H3">
+        <v>4.8547885461936868</v>
+      </c>
+      <c r="I3">
+        <v>5.8394906076783872</v>
+      </c>
+      <c r="J3">
+        <v>7.1519399749232759</v>
+      </c>
+      <c r="K3">
+        <v>8.1173134342140116</v>
+      </c>
+      <c r="L3">
+        <v>8.9718809825498074</v>
+      </c>
+      <c r="M3">
+        <v>9.548818794394796</v>
+      </c>
+      <c r="N3">
+        <v>10.591760813213927</v>
+      </c>
+      <c r="O3">
+        <v>10.188674949493763</v>
+      </c>
+      <c r="P3">
+        <v>9.5876828489254748</v>
+      </c>
+      <c r="Q3">
+        <v>9.0511188483178397</v>
+      </c>
+      <c r="R3">
+        <v>8.9363981951206757</v>
+      </c>
+      <c r="S3">
+        <v>8.2810136742671858</v>
+      </c>
+      <c r="T3">
+        <v>8.0166966927804264</v>
+      </c>
+      <c r="U3">
+        <v>7.7509961877100766</v>
+      </c>
+      <c r="V3">
+        <v>7.424107459562209</v>
+      </c>
+      <c r="W3">
+        <v>7.0694383485525245</v>
+      </c>
+      <c r="X3">
+        <v>6.5188184044217401</v>
+      </c>
+      <c r="Y3">
+        <v>6.4834025771411632</v>
+      </c>
+      <c r="Z3">
+        <v>6.1912570431189824</v>
+      </c>
+      <c r="AA3">
+        <v>6.3022452922549483</v>
+      </c>
+      <c r="AB3">
+        <v>5.914685277605142</v>
+      </c>
+      <c r="AC3">
+        <v>5.5397824870039667</v>
+      </c>
+      <c r="AD3">
+        <v>5.3608575758582484</v>
+      </c>
+      <c r="AE3">
+        <v>5.3477878164607766</v>
+      </c>
+      <c r="AF3">
+        <v>5.3254735961552946</v>
+      </c>
+      <c r="AG3">
+        <v>5.0236973583397635</v>
+      </c>
+      <c r="AH3">
+        <v>4.8993816012644364</v>
+      </c>
+      <c r="AI3">
+        <v>4.7982372700181664</v>
+      </c>
+      <c r="AJ3">
+        <v>4.5661563580101383</v>
+      </c>
+      <c r="AK3">
+        <v>4.337636495763439</v>
+      </c>
+      <c r="AL3">
+        <v>4.4339710883676204</v>
+      </c>
+      <c r="AM3">
+        <v>4.1469288455342337</v>
+      </c>
+      <c r="AN3">
+        <v>4.1788685053140817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>26</v>
+      </c>
+      <c r="O4">
+        <v>28</v>
+      </c>
+      <c r="P4">
+        <v>30</v>
+      </c>
+      <c r="Q4">
+        <v>32</v>
+      </c>
+      <c r="R4">
+        <v>34</v>
+      </c>
+      <c r="S4">
+        <v>36</v>
+      </c>
+      <c r="T4">
+        <v>38</v>
+      </c>
+      <c r="U4">
+        <v>40</v>
+      </c>
+      <c r="V4">
+        <v>42</v>
+      </c>
+      <c r="W4">
+        <v>44</v>
+      </c>
+      <c r="X4">
+        <v>46</v>
+      </c>
+      <c r="Y4">
+        <v>48</v>
+      </c>
+      <c r="Z4">
+        <v>50</v>
+      </c>
+      <c r="AA4">
+        <v>52</v>
+      </c>
+      <c r="AB4">
+        <v>54</v>
+      </c>
+      <c r="AC4">
+        <v>56</v>
+      </c>
+      <c r="AD4">
+        <v>58</v>
+      </c>
+      <c r="AE4">
+        <v>60</v>
+      </c>
+      <c r="AF4">
+        <v>62</v>
+      </c>
+      <c r="AG4">
+        <v>64</v>
+      </c>
+      <c r="AH4">
+        <v>66</v>
+      </c>
+      <c r="AI4">
+        <v>68</v>
+      </c>
+      <c r="AJ4">
+        <v>70</v>
+      </c>
+      <c r="AK4">
+        <v>72</v>
+      </c>
+      <c r="AL4">
+        <v>74</v>
+      </c>
+      <c r="AM4">
+        <v>76</v>
+      </c>
+      <c r="AN4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f xml:space="preserve"> (A2-A3)</f>
+        <v>7.3599109592210893E-17</v>
+      </c>
+      <c r="B6">
+        <f xml:space="preserve"> (B2-B3)</f>
+        <v>3.1820882497273627E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:AN6" si="0" xml:space="preserve"> (C2-C3)</f>
+        <v>-9.5405661730872698E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-6.5878002793717305E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.9681470088904543E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-0.32424024639991789</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.27221670527250597</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-2.4445215663802422E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.10179725201929646</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-0.31155418507290644</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-0.32042934205909379</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>-0.36611322346929498</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>4.448875693713461E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>-0.31074955321382802</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>-0.57994512277526056</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>-0.32856457813005946</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>-0.15200258515320364</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>-0.28545046466579294</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-4.8195043204817267E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>-0.15936585557785143</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>-0.25385077919859089</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>-0.33464447876059378</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>-0.30849073757955647</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>0.21687458125730874</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>2.0492774043641582E-2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>-3.955838404960943E-4</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>-0.21129689835785115</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>-0.14103395899162408</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>6.0033412470332337E-2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>5.9725898086071538E-4</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>0.1484837466686626</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>-0.18705115167149344</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>-7.1813170876510846E-2</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>-4.0843572420470764E-2</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>7.8077845855553107E-2</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>0.18383050343626905</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>0.23838494055231685</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="0"/>
+        <v>-7.3545491483936409E-2</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="0"/>
+        <v>0.12189152980599172</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="0"/>
+        <v>9.3538892458023604E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>AVERAGE(A2:A3)</f>
+        <v>-6.0728849992759379E-17</v>
+      </c>
+      <c r="B7" t="b">
+        <f>D7=AVERAGE(B2:B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C2:C3)</f>
+        <v>-1.8738896333341599E-2</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(D2:D3)</f>
+        <v>-0.13156381427012684</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:AN7" si="1">AVERAGE(E2:E3)</f>
+        <v>-5.8619381587575257E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.0449812002007719</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3.4811413943802876</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>4.8425659383617852</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5.890389233688035</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>6.9961628823868232</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>7.9570987631844652</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>8.7888243708151599</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>9.5710631728633633</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>10.436386036607013</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>9.8987023881061322</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>9.4234005598604451</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>8.9751175557412388</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>8.7936729627877792</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>8.2569161526647772</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>7.9370137649915007</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>7.6240707981107807</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>7.2567852201819125</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>6.9151929797627467</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>6.627255695050394</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>6.4936489641629844</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>6.1910592511987339</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>6.1965968430760228</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>5.8441682981093299</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>5.5697991932391329</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="1"/>
+        <v>5.3611562053486788</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>5.4220296897951084</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="1"/>
+        <v>5.2319480203195479</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="1"/>
+        <v>4.9877907729015085</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="1"/>
+        <v>4.8789598150542011</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="1"/>
+        <v>4.8372761929459429</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="1"/>
+        <v>4.6580716097282728</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="1"/>
+        <v>4.4568289660395974</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="1"/>
+        <v>4.3971983426256518</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="1"/>
+        <v>4.20787461043723</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="1"/>
+        <v>4.225637951543094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>AVERAGE(6:6)</f>
+        <v>-9.7688194032311965E-2</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>-9.7689999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f>STDEV(A6:AN6)</f>
+        <v>0.19007575194215381</v>
+      </c>
+      <c r="W13">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>-9.7689999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>-0.47024680000000002</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>-0.47025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>0.27486680000000002</v>
+      </c>
+      <c r="W15">
+        <v>12</v>
+      </c>
+      <c r="X15">
+        <v>-0.47025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0.27487</v>
+      </c>
+    </row>
+    <row r="17" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>12</v>
+      </c>
+      <c r="X17">
+        <v>0.27487</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>